--- a/topic_1_img/topic_1_ex_template.xlsx
+++ b/topic_1_img/topic_1_ex_template.xlsx
@@ -1027,13 +1027,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>142920</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>350640</xdr:colOff>
+      <xdr:colOff>350280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1043,7 +1043,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="142920" y="209520"/>
-          <a:ext cx="9409680" cy="1055520"/>
+          <a:ext cx="9409680" cy="1055160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1176,14 +1176,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>379080</xdr:colOff>
+      <xdr:colOff>378720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1193,7 +1193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="614160" y="162000"/>
-          <a:ext cx="12560760" cy="798120"/>
+          <a:ext cx="12561840" cy="797760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1313,14 +1313,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>26280</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1330,7 +1330,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="614160" y="162000"/>
-          <a:ext cx="17836200" cy="2150640"/>
+          <a:ext cx="17835840" cy="2150280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1554,13 +1554,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>504720</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1798200</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>384840</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1569,8 +1569,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="504720" y="27866520"/>
-          <a:ext cx="4233600" cy="950400"/>
+          <a:off x="504720" y="29540880"/>
+          <a:ext cx="6012360" cy="1022400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2544,7 +2544,7 @@
       <c r="E30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="0"/>
+      <c r="H30" s="2"/>
       <c r="J30" s="13" t="s">
         <v>39</v>
       </c>
@@ -2892,7 +2892,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A9:H60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2904,7 +2904,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="15.23"/>
   </cols>
   <sheetData>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="31" t="s">
         <v>71</v>
       </c>
@@ -3017,11 +3025,16 @@
       <c r="C21" s="38"/>
       <c r="H21" s="35"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="39" t="s">
         <v>85</v>
@@ -3031,14 +3044,14 @@
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="13"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="14"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="40" t="s">
         <v>86</v>
       </c>
@@ -3073,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="13"/>
       <c r="C33" s="10" t="s">
         <v>37</v>
@@ -3082,7 +3095,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="20"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="13"/>
       <c r="C34" s="10" t="s">
         <v>74</v>
@@ -3091,7 +3104,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="13"/>
       <c r="C35" s="10" t="s">
         <v>10</v>
@@ -3100,7 +3113,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="20"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="13"/>
       <c r="C36" s="10" t="s">
         <v>40</v>
@@ -3109,7 +3122,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="20"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="13"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -3128,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="13"/>
       <c r="C39" s="10" t="s">
         <v>45</v>
@@ -3137,7 +3150,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="20"/>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="13"/>
       <c r="C40" s="2" t="s">
         <v>87</v>
@@ -3145,7 +3158,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="20"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="13"/>
       <c r="C41" s="10" t="s">
         <v>47</v>
@@ -3154,7 +3167,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="20"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="13"/>
       <c r="C42" s="10" t="s">
         <v>49</v>
@@ -3163,7 +3176,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="20"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="13"/>
       <c r="C43" s="10" t="s">
         <v>88</v>
@@ -3172,7 +3185,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="20"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="13"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -3191,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="13" t="s">
         <v>55</v>
       </c>
@@ -3203,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="13"/>
       <c r="C47" s="10" t="s">
         <v>73</v>
@@ -3212,7 +3225,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="20"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="13"/>
       <c r="C48" s="10" t="s">
         <v>58</v>
@@ -3221,7 +3234,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="20"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="13"/>
       <c r="C49" s="10" t="s">
         <v>60</v>
@@ -3230,7 +3243,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="20"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="13"/>
       <c r="C50" s="10" t="s">
         <v>62</v>
@@ -3239,14 +3252,14 @@
       <c r="E50" s="10"/>
       <c r="F50" s="20"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="13"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="20"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="13" t="s">
         <v>5</v>
       </c>
@@ -3258,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="13"/>
       <c r="C53" s="10" t="s">
         <v>65</v>
@@ -3267,7 +3280,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="20"/>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="13"/>
       <c r="C54" s="10" t="s">
         <v>67</v>
@@ -3276,7 +3289,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="20"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="13"/>
       <c r="C55" s="2" t="s">
         <v>89</v>
@@ -3285,7 +3298,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="20"/>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="13"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -3304,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="13"/>
       <c r="C58" s="10" t="s">
         <v>70</v>
@@ -3313,7 +3326,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="20"/>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="13"/>
       <c r="C59" s="10" t="s">
         <v>21</v>
@@ -3322,7 +3335,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="20"/>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="40"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -3349,7 +3362,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A7:H39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3362,7 +3375,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.83"/>
   </cols>
   <sheetData>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="31" t="s">
         <v>71</v>
       </c>
@@ -3370,7 +3389,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="48" t="s">
         <v>91</v>
       </c>
@@ -3378,7 +3397,7 @@
         <v>51692</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="48" t="s">
         <v>92</v>
       </c>
@@ -3386,7 +3405,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="48" t="s">
         <v>93</v>
       </c>
@@ -3394,7 +3413,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="48" t="s">
         <v>94</v>
       </c>
@@ -3402,11 +3421,11 @@
         <v>72184</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="48"/>
       <c r="C12" s="49"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="48" t="s">
         <v>95</v>
       </c>
@@ -3416,7 +3435,7 @@
       <c r="F13" s="48"/>
       <c r="G13" s="50"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="48" t="s">
         <v>96</v>
       </c>
@@ -3424,7 +3443,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="48" t="s">
         <v>97</v>
       </c>
@@ -3432,7 +3451,7 @@
         <v>16561</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="51" t="s">
         <v>98</v>
       </c>
@@ -3440,11 +3459,14 @@
         <v>72618</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="39" t="s">
         <v>99</v>
@@ -3455,7 +3477,7 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="13"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -3463,7 +3485,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="40" t="s">
         <v>32</v>
       </c>
@@ -3475,7 +3497,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="13" t="s">
         <v>34</v>
       </c>
@@ -3508,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="13"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -3516,7 +3538,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="13" t="s">
         <v>39</v>
       </c>
@@ -3557,7 +3579,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="46"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="13" t="s">
         <v>57</v>
       </c>
@@ -3567,7 +3589,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="13" t="s">
         <v>59</v>
       </c>
@@ -3590,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="13"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -3598,7 +3620,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="20"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="13" t="s">
         <v>63</v>
       </c>
@@ -3632,7 +3654,7 @@
       </c>
       <c r="H38" s="56"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="40"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -3660,10 +3682,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A16:O183"/>
+  <dimension ref="A1:O183"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D177" activeCellId="0" sqref="D177"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B178" activeCellId="0" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.67578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3676,6 +3698,21 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="8.94"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="39" t="s">
         <v>102</v>
@@ -3694,7 +3731,7 @@
       <c r="L16" s="39"/>
       <c r="M16" s="39"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="13"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -3708,7 +3745,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="40" t="s">
         <v>31</v>
       </c>
@@ -3794,7 +3831,7 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="13"/>
       <c r="C22" s="10" t="s">
         <v>74</v>
@@ -3812,7 +3849,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="13"/>
       <c r="C23" s="10" t="s">
         <v>10</v>
@@ -3832,7 +3869,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="13"/>
       <c r="C24" s="10" t="s">
         <v>40</v>
@@ -3850,7 +3887,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="13"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -3891,7 +3928,7 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="13"/>
       <c r="C27" s="10" t="s">
         <v>45</v>
@@ -3911,7 +3948,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="13"/>
       <c r="C28" s="10" t="s">
         <v>47</v>
@@ -3929,7 +3966,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="13"/>
       <c r="C29" s="10" t="s">
         <v>49</v>
@@ -3949,7 +3986,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="13"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -4025,7 +4062,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="46"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="13"/>
       <c r="C34" s="10" t="s">
         <v>73</v>
@@ -4043,7 +4080,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="20"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="13"/>
       <c r="C35" s="10" t="s">
         <v>58</v>
@@ -4088,7 +4125,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="13"/>
       <c r="C37" s="10" t="s">
         <v>62</v>
@@ -4106,7 +4143,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="20"/>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="13"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -4171,7 +4208,7 @@
         <v>3198.75</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="13"/>
       <c r="C41" s="10" t="s">
         <v>67</v>
@@ -4187,7 +4224,7 @@
       <c r="L41" s="16"/>
       <c r="M41" s="41"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="13"/>
       <c r="C42" s="10" t="s">
         <v>68</v>
@@ -4203,7 +4240,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="13"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -4236,7 +4273,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="13"/>
       <c r="C45" s="10" t="s">
         <v>70</v>
@@ -4254,7 +4291,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="13"/>
       <c r="C46" s="10" t="s">
         <v>21</v>
@@ -4273,7 +4310,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="40"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -4287,12 +4324,13 @@
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
         <v>104</v>
       </c>
@@ -4301,25 +4339,26 @@
       </c>
       <c r="F50" s="57"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F51" s="57"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F52" s="58"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F53" s="58"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2" t="s">
         <v>109</v>
       </c>
@@ -4327,7 +4366,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="59" t="s">
         <v>111</v>
       </c>
@@ -4337,7 +4376,7 @@
       <c r="G56" s="59"/>
       <c r="H56" s="59"/>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="59"/>
       <c r="D57" s="59"/>
       <c r="E57" s="59"/>
@@ -4351,7 +4390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="59"/>
       <c r="D58" s="59"/>
       <c r="E58" s="59"/>
@@ -4359,7 +4398,7 @@
       <c r="G58" s="64"/>
       <c r="H58" s="65"/>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="59"/>
       <c r="D59" s="59"/>
       <c r="E59" s="59"/>
@@ -4367,7 +4406,7 @@
       <c r="G59" s="59"/>
       <c r="H59" s="62"/>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="59" t="s">
         <v>112</v>
       </c>
@@ -4377,7 +4416,7 @@
       <c r="G60" s="59"/>
       <c r="H60" s="62"/>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="59"/>
       <c r="D61" s="59"/>
       <c r="E61" s="59"/>
@@ -4391,7 +4430,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="59"/>
       <c r="D62" s="59"/>
       <c r="E62" s="59"/>
@@ -4399,7 +4438,7 @@
       <c r="G62" s="64"/>
       <c r="H62" s="65"/>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="59"/>
       <c r="D63" s="59"/>
       <c r="E63" s="59"/>
@@ -4407,7 +4446,7 @@
       <c r="G63" s="59"/>
       <c r="H63" s="62"/>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="59" t="s">
         <v>114</v>
       </c>
@@ -4417,7 +4456,7 @@
       <c r="G64" s="59"/>
       <c r="H64" s="62"/>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="59"/>
       <c r="D65" s="59"/>
       <c r="E65" s="59"/>
@@ -4431,7 +4470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="59"/>
       <c r="D66" s="59"/>
       <c r="E66" s="59"/>
@@ -4439,7 +4478,7 @@
       <c r="G66" s="64"/>
       <c r="H66" s="65"/>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="59"/>
       <c r="D67" s="59"/>
       <c r="E67" s="59"/>
@@ -4447,7 +4486,7 @@
       <c r="G67" s="59"/>
       <c r="H67" s="62"/>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="59"/>
       <c r="D68" s="59"/>
       <c r="E68" s="59"/>
@@ -4455,7 +4494,7 @@
       <c r="G68" s="59"/>
       <c r="H68" s="62"/>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="59" t="s">
         <v>115</v>
       </c>
@@ -4471,7 +4510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="59"/>
       <c r="D70" s="59"/>
       <c r="E70" s="59"/>
@@ -4479,7 +4518,7 @@
       <c r="G70" s="64"/>
       <c r="H70" s="65"/>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
       <c r="E71" s="59"/>
@@ -4513,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="59"/>
       <c r="D73" s="59"/>
       <c r="E73" s="59"/>
@@ -4521,7 +4560,7 @@
       <c r="G73" s="64"/>
       <c r="H73" s="65"/>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="59"/>
       <c r="D74" s="59"/>
       <c r="E74" s="59"/>
@@ -4545,7 +4584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="59"/>
       <c r="D76" s="59"/>
       <c r="E76" s="59"/>
@@ -4553,7 +4592,7 @@
       <c r="G76" s="64"/>
       <c r="H76" s="65"/>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="59"/>
       <c r="D77" s="59"/>
       <c r="E77" s="59"/>
@@ -4561,7 +4600,7 @@
       <c r="G77" s="59"/>
       <c r="H77" s="62"/>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="59"/>
       <c r="D78" s="59"/>
       <c r="E78" s="59" t="s">
@@ -4577,7 +4616,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
       <c r="E79" s="59"/>
@@ -4585,7 +4624,7 @@
       <c r="G79" s="64"/>
       <c r="H79" s="65"/>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
       <c r="E80" s="59"/>
@@ -4593,11 +4632,12 @@
       <c r="G80" s="59"/>
       <c r="H80" s="59"/>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="2" t="s">
         <v>120</v>
       </c>
     </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="39" t="s">
         <v>102</v>
@@ -4616,7 +4656,7 @@
       <c r="L83" s="39"/>
       <c r="M83" s="39"/>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="13"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
@@ -4630,7 +4670,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="14"/>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="40" t="s">
         <v>31</v>
       </c>
@@ -4711,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="13"/>
       <c r="C89" s="10" t="s">
         <v>74</v>
@@ -4727,7 +4767,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="20"/>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="13"/>
       <c r="C90" s="10" t="s">
         <v>10</v>
@@ -4748,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="13"/>
       <c r="C91" s="10" t="s">
         <v>40</v>
@@ -4766,7 +4806,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="20"/>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="13"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -4803,7 +4843,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="20"/>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="13"/>
       <c r="C94" s="10" t="s">
         <v>45</v>
@@ -4821,7 +4861,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="13"/>
       <c r="C95" s="10" t="s">
         <v>47</v>
@@ -4839,7 +4879,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="14"/>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="13"/>
       <c r="C96" s="10" t="s">
         <v>49</v>
@@ -4857,7 +4897,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="20"/>
     </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="13"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -4932,7 +4972,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="46"/>
     </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="13"/>
       <c r="C101" s="10" t="s">
         <v>73</v>
@@ -4950,7 +4990,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="20"/>
     </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="13"/>
       <c r="C102" s="10" t="s">
         <v>58</v>
@@ -4989,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="13"/>
       <c r="C104" s="10" t="s">
         <v>62</v>
@@ -5005,7 +5045,7 @@
       <c r="L104" s="10"/>
       <c r="M104" s="20"/>
     </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="13"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -5069,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="13"/>
       <c r="C108" s="10" t="s">
         <v>67</v>
@@ -5085,7 +5125,7 @@
       <c r="L108" s="16"/>
       <c r="M108" s="41"/>
     </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="13"/>
       <c r="C109" s="10" t="s">
         <v>68</v>
@@ -5101,7 +5141,7 @@
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
     </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="13"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
@@ -5134,7 +5174,7 @@
       <c r="L111" s="10"/>
       <c r="M111" s="10"/>
     </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="13"/>
       <c r="C112" s="10" t="s">
         <v>70</v>
@@ -5150,7 +5190,7 @@
       <c r="L112" s="10"/>
       <c r="M112" s="10"/>
     </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="13"/>
       <c r="C113" s="10" t="s">
         <v>21</v>
@@ -5166,7 +5206,7 @@
       <c r="L113" s="10"/>
       <c r="M113" s="10"/>
     </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="40"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -5180,7 +5220,9 @@
       <c r="L114" s="10"/>
       <c r="M114" s="10"/>
     </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="2" t="s">
         <v>105</v>
       </c>
@@ -5189,7 +5231,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="2" t="s">
         <v>106</v>
       </c>
@@ -5198,7 +5240,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="2" t="s">
         <v>107</v>
       </c>
@@ -5207,7 +5249,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="2" t="s">
         <v>108</v>
       </c>
@@ -5216,11 +5258,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
         <v>121</v>
       </c>
     </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="39" t="s">
         <v>102</v>
@@ -5239,7 +5282,7 @@
       <c r="L123" s="39"/>
       <c r="M123" s="39"/>
     </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="13"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
@@ -5253,7 +5296,7 @@
       <c r="L124" s="10"/>
       <c r="M124" s="14"/>
     </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="40" t="s">
         <v>31</v>
       </c>
@@ -5334,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="13"/>
       <c r="C129" s="10" t="s">
         <v>74</v>
@@ -5350,7 +5393,7 @@
       <c r="L129" s="10"/>
       <c r="M129" s="20"/>
     </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="13"/>
       <c r="C130" s="10" t="s">
         <v>10</v>
@@ -5371,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="13"/>
       <c r="C131" s="10" t="s">
         <v>40</v>
@@ -5389,7 +5432,7 @@
       <c r="L131" s="10"/>
       <c r="M131" s="20"/>
     </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="13"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
@@ -5426,7 +5469,7 @@
       <c r="L133" s="10"/>
       <c r="M133" s="20"/>
     </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="13"/>
       <c r="C134" s="10" t="s">
         <v>45</v>
@@ -5444,7 +5487,7 @@
       <c r="L134" s="10"/>
       <c r="M134" s="14"/>
     </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="13"/>
       <c r="C135" s="10" t="s">
         <v>47</v>
@@ -5462,7 +5505,7 @@
       <c r="L135" s="10"/>
       <c r="M135" s="14"/>
     </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="13"/>
       <c r="C136" s="10" t="s">
         <v>49</v>
@@ -5480,7 +5523,7 @@
       <c r="L136" s="10"/>
       <c r="M136" s="20"/>
     </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="13"/>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
@@ -5555,7 +5598,7 @@
       <c r="L140" s="10"/>
       <c r="M140" s="46"/>
     </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="13"/>
       <c r="C141" s="10" t="s">
         <v>73</v>
@@ -5573,7 +5616,7 @@
       <c r="L141" s="10"/>
       <c r="M141" s="20"/>
     </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="13"/>
       <c r="C142" s="10" t="s">
         <v>58</v>
@@ -5612,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="13"/>
       <c r="C144" s="10" t="s">
         <v>62</v>
@@ -5628,7 +5671,7 @@
       <c r="L144" s="10"/>
       <c r="M144" s="20"/>
     </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="13"/>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
@@ -5692,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="13"/>
       <c r="C148" s="10" t="s">
         <v>67</v>
@@ -5708,7 +5751,7 @@
       <c r="L148" s="16"/>
       <c r="M148" s="41"/>
     </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="13"/>
       <c r="C149" s="10" t="s">
         <v>68</v>
@@ -5724,7 +5767,7 @@
       <c r="L149" s="10"/>
       <c r="M149" s="10"/>
     </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="13"/>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
@@ -5757,7 +5800,7 @@
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
     </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="13"/>
       <c r="C152" s="10" t="s">
         <v>70</v>
@@ -5773,7 +5816,7 @@
       <c r="L152" s="10"/>
       <c r="M152" s="10"/>
     </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="13"/>
       <c r="C153" s="10" t="s">
         <v>21</v>
@@ -5789,7 +5832,7 @@
       <c r="L153" s="10"/>
       <c r="M153" s="10"/>
     </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="40"/>
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
@@ -5803,7 +5846,9 @@
       <c r="L154" s="10"/>
       <c r="M154" s="10"/>
     </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C157" s="2" t="s">
         <v>105</v>
       </c>
@@ -5812,7 +5857,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C158" s="2" t="s">
         <v>106</v>
       </c>
@@ -5821,7 +5866,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C159" s="2" t="s">
         <v>107</v>
       </c>
@@ -5830,7 +5875,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C160" s="2" t="s">
         <v>108</v>
       </c>
@@ -5839,13 +5884,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="31"/>
       <c r="C162" s="31"/>
       <c r="D162" s="31"/>
       <c r="E162" s="31"/>
     </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="31" t="s">
         <v>122</v>
       </c>
@@ -5859,7 +5905,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="2" t="s">
         <v>105</v>
       </c>
@@ -5876,7 +5922,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="2" t="s">
         <v>125</v>
       </c>
@@ -5893,7 +5939,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="2" t="s">
         <v>107</v>
       </c>
@@ -5910,7 +5956,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="31" t="s">
         <v>108</v>
       </c>
@@ -5927,7 +5973,22 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C183" s="2" t="s">
         <v>126</v>
       </c>

--- a/topic_1_img/topic_1_ex_template.xlsx
+++ b/topic_1_img/topic_1_ex_template.xlsx
@@ -355,7 +355,7 @@
     <t xml:space="preserve">Part 2</t>
   </si>
   <si>
-    <t xml:space="preserve">The idea is to use the accounting equation to idenfity which elements change:</t>
+    <t xml:space="preserve">The idea is to use the accounting equation to identify which elements change:</t>
   </si>
   <si>
     <t xml:space="preserve">1) Increase in revenues</t>
@@ -419,7 +419,7 @@
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,14 +537,51 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -655,7 +692,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="95">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -884,11 +921,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -896,11 +929,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -908,43 +937,139 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1031,9 +1156,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>350280</xdr:colOff>
+      <xdr:colOff>349920</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1043,7 +1168,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="142920" y="209520"/>
-          <a:ext cx="9409680" cy="1055160"/>
+          <a:ext cx="9409320" cy="1054800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1181,9 +1306,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>378720</xdr:colOff>
+      <xdr:colOff>378360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1193,7 +1318,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="614160" y="162000"/>
-          <a:ext cx="12561840" cy="797760"/>
+          <a:ext cx="12561480" cy="797400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1318,9 +1443,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>26280</xdr:colOff>
+      <xdr:colOff>25920</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1330,7 +1455,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="614160" y="162000"/>
-          <a:ext cx="17835840" cy="2150280"/>
+          <a:ext cx="17835480" cy="2347920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1395,7 +1520,7 @@
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
-            <a:t>The CEO is deciding whether to buy or rent a new office in Valencia. He expects that the new office will increase the revenues by 30% increasing the cost of service by just 5% because he is not planning to hire more employees. Both revenues and costs are expected to be in cash. Furthermore, the CEO knows that he will need to spend 100 euros on advertising, payable within the year. The rent of the office will cost 600 euros per year. A loan for the value of the office, 50.000 euros, will pay 300 euros in interest per year. The office's depreciation is 500 euros.</a:t>
+            <a:t>The CEO is deciding whether to buy or rent a new office in Valencia. He expects that the new office will increase the revenues by 30% increasing the cost of service by just 5% because he is not planning to hire more employees. Both revenues and costs are expected to be in cash. Furthermore, the CEO knows that he will need to spend 100 euros on advertising, payable within the year. The rent of the office will cost 600 euros per year. A loan for the value of the office, 50.000 euros, would pay 300 euros in interest per year. The office's yearly depreciation would be 500 euros.</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1558,9 +1683,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>384840</xdr:colOff>
+      <xdr:colOff>384480</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1569,8 +1694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="504720" y="29540880"/>
-          <a:ext cx="6012360" cy="1022400"/>
+          <a:off x="504720" y="32101200"/>
+          <a:ext cx="6012000" cy="1113480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1851,7 +1976,7 @@
   <dimension ref="B2:T66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3682,2314 +3807,2274 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O183"/>
+  <dimension ref="A16:O183"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B178" activeCellId="0" sqref="B178"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A138" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F171" activeCellId="0" sqref="F171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.67578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="29.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="32.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="14.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="8.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="57" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="29.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="58" width="32.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="57" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="58" width="14.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="58" width="15.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="57" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="58" width="14.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="57" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="58" width="8.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="57" width="7.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="39" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="39" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="13"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="40" t="s">
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="61"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="62"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="40" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="41"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="42" t="s">
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="65"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="43" t="n">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="67" t="n">
         <f aca="false">+F20+F26</f>
         <v>40100</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="13" t="s">
+      <c r="G19" s="60"/>
+      <c r="H19" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="20" t="n">
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="68" t="n">
         <v>8500</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="44" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46" t="n">
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71" t="n">
         <f aca="false">+F21+F22</f>
         <v>20300</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="13" t="s">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="53" t="n">
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="72" t="n">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="13"/>
-      <c r="C21" s="10" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="61"/>
+      <c r="C21" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="20" t="n">
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="68" t="n">
         <v>17300</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="42" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="43" t="n">
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="67" t="n">
         <v>7700</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="13"/>
-      <c r="C22" s="10" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="61"/>
+      <c r="C22" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="20" t="n">
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="68" t="n">
         <v>3000</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="13"/>
-      <c r="C23" s="10" t="s">
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="68"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="61"/>
+      <c r="C23" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="13" t="s">
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="20" t="n">
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="68" t="n">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="13"/>
-      <c r="C24" s="10" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="61"/>
+      <c r="C24" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="10" t="s">
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="14"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="13"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10" t="s">
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="62"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="61"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="20" t="n">
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="68" t="n">
         <v>-200</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="44" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46" t="n">
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="71" t="n">
         <f aca="false">+F27</f>
         <v>19800</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="10" t="s">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="20" t="n">
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="68" t="n">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="13"/>
-      <c r="C27" s="10" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="61"/>
+      <c r="C27" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="20" t="n">
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="68" t="n">
         <v>19800</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="10" t="s">
+      <c r="G27" s="60"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="14"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="13"/>
-      <c r="C28" s="10" t="s">
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="62"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="61"/>
+      <c r="C28" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="10" t="s">
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="13"/>
-      <c r="C29" s="10" t="s">
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="62"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="61"/>
+      <c r="C29" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="10" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="20" t="n">
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="68" t="n">
         <v>-500</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="13"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="10" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="61"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="14"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="13"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="13" t="s">
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="62"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="61"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="54" t="n">
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="74" t="n">
         <v>-1600</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="42" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="43" t="n">
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="67" t="n">
         <f aca="false">+F33+F39+F44</f>
         <v>40100</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="42" t="s">
+      <c r="G32" s="60"/>
+      <c r="H32" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="43" t="n">
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="67" t="n">
         <v>4300</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="13" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="20" t="n">
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="68" t="n">
         <f aca="false">+F34+F35+F34+F36+F37</f>
         <v>1901.25</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="46"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="13"/>
-      <c r="C34" s="10" t="s">
+      <c r="G33" s="60"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="71"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="61"/>
+      <c r="C34" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="13" t="s">
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="20"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="13"/>
-      <c r="C35" s="10" t="s">
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="68"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="61"/>
+      <c r="C35" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="20" t="n">
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="68" t="n">
         <v>35</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="13" t="s">
+      <c r="G35" s="60"/>
+      <c r="H35" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="27" t="n">
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="75" t="n">
         <v>-35</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="13"/>
-      <c r="C36" s="10" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="61"/>
+      <c r="C36" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="20" t="n">
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="68" t="n">
         <f aca="false">+-M39</f>
         <v>1066.25</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="42" t="s">
+      <c r="G36" s="60"/>
+      <c r="H36" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="43" t="n">
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="67" t="n">
         <v>-35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="13"/>
-      <c r="C37" s="10" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="61"/>
+      <c r="C37" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="20" t="n">
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="68" t="n">
         <v>800</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="20"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="13"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="13" t="s">
+      <c r="G37" s="60"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="68"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="61"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="20" t="n">
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="68" t="n">
         <v>4265</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="13" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="20" t="n">
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="68" t="n">
         <f aca="false">+F40</f>
         <v>5000</v>
       </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="13" t="s">
+      <c r="G39" s="60"/>
+      <c r="H39" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="55" t="n">
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="76" t="n">
         <f aca="false">-M38*0.25</f>
         <v>-1066.25</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="13"/>
-      <c r="C40" s="10" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="61"/>
+      <c r="C40" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="20" t="n">
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="68" t="n">
         <v>5000</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="42" t="s">
+      <c r="G40" s="60"/>
+      <c r="H40" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="43" t="n">
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="67" t="n">
         <f aca="false">M38+M39</f>
         <v>3198.75</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="13"/>
-      <c r="C41" s="10" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="61"/>
+      <c r="C41" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="41"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="13"/>
-      <c r="C42" s="10" t="s">
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="65"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="61"/>
+      <c r="C42" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="13"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="29" t="s">
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="61"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="20" t="n">
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="68" t="n">
         <f aca="false">+F45+F46</f>
         <v>33198.75</v>
       </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="13"/>
-      <c r="C45" s="10" t="s">
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="61"/>
+      <c r="C45" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="20" t="n">
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="68" t="n">
         <v>30000</v>
       </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="13"/>
-      <c r="C46" s="10" t="s">
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="61"/>
+      <c r="C46" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="20" t="n">
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="68" t="n">
         <f aca="false">+M40</f>
         <v>3198.75</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="40"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="58" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="2" t="s">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="F50" s="57"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="2" t="s">
+      <c r="F50" s="79"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="F51" s="57"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="2" t="s">
+      <c r="F51" s="79"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="F52" s="58"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="2" t="s">
+      <c r="F52" s="80"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="F53" s="58"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="2" t="s">
+      <c r="F53" s="80"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="59" t="s">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="60" t="s">
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="61" t="s">
+      <c r="G57" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="62" t="s">
+      <c r="H57" s="84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="65"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="62"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="59" t="s">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="87"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="84"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="62"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="60" t="s">
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="84"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="61" t="s">
+      <c r="G61" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H61" s="62" t="s">
+      <c r="H61" s="84" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="65"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="62"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="59" t="s">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="87"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="84"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="62"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="60" t="s">
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="84"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="61" t="s">
+      <c r="G65" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H65" s="62" t="s">
+      <c r="H65" s="84" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="65"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="62"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="62"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="59" t="s">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="87"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="84"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="84"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="60" t="s">
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="61" t="s">
+      <c r="G69" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H69" s="62" t="s">
+      <c r="H69" s="84" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="65"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="62"/>
-      <c r="O71" s="66" t="n">
-        <f aca="false">+F19+O72</f>
-        <v>40100</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="59" t="s">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="87"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="84"/>
+      <c r="O71" s="88"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59" t="s">
+      <c r="D72" s="81"/>
+      <c r="E72" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="F72" s="67" t="s">
+      <c r="F72" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="G72" s="61" t="s">
+      <c r="G72" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H72" s="62" t="s">
+      <c r="H72" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="O72" s="66" t="n">
-        <f aca="false">+F58+F62+F66+F70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="65"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="62"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59" t="s">
+      <c r="O72" s="88"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="81"/>
+      <c r="D73" s="81"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="87"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="81"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="84"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="81"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="F75" s="67" t="s">
+      <c r="F75" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="G75" s="61" t="s">
+      <c r="G75" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H75" s="67" t="s">
+      <c r="H75" s="84" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="65"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="62"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="59" t="s">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="81"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="87"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="84"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="81"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="F78" s="60" t="s">
+      <c r="F78" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="G78" s="61" t="s">
+      <c r="G78" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H78" s="62" t="s">
+      <c r="H78" s="84" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="59"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="65"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="59"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="2" t="s">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="81"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="81"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="86"/>
+      <c r="H79" s="87"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="81"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="81"/>
+      <c r="F80" s="81"/>
+      <c r="G80" s="81"/>
+      <c r="H80" s="81"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="58" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="39" t="s">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="39" t="s">
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="13"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="14"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="40" t="s">
+      <c r="I83" s="59"/>
+      <c r="J83" s="59"/>
+      <c r="K83" s="59"/>
+      <c r="L83" s="59"/>
+      <c r="M83" s="59"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="61"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="60"/>
+      <c r="M84" s="62"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="40" t="s">
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="41"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="42" t="s">
+      <c r="I85" s="64"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="64"/>
+      <c r="L85" s="64"/>
+      <c r="M85" s="65"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="43" t="n">
+      <c r="C86" s="60"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="67" t="n">
         <f aca="false">+F87+F93</f>
         <v>0</v>
       </c>
-      <c r="G86" s="10"/>
-      <c r="H86" s="13" t="s">
+      <c r="G86" s="60"/>
+      <c r="H86" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="20"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="44" t="s">
+      <c r="I86" s="60"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="68"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="46" t="n">
+      <c r="C87" s="70"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="71" t="n">
         <f aca="false">SUM(F88:F91)</f>
         <v>0</v>
       </c>
-      <c r="G87" s="10"/>
-      <c r="H87" s="13" t="s">
+      <c r="G87" s="60"/>
+      <c r="H87" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="53"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="13"/>
-      <c r="C88" s="10" t="s">
+      <c r="I87" s="60"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="60"/>
+      <c r="M87" s="72"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="61"/>
+      <c r="C88" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="42" t="s">
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="I88" s="47"/>
-      <c r="J88" s="47"/>
-      <c r="K88" s="47"/>
-      <c r="L88" s="47"/>
-      <c r="M88" s="43" t="n">
+      <c r="I88" s="73"/>
+      <c r="J88" s="73"/>
+      <c r="K88" s="73"/>
+      <c r="L88" s="73"/>
+      <c r="M88" s="67" t="n">
         <f aca="false">+M86+M87</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="13"/>
-      <c r="C89" s="10" t="s">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="61"/>
+      <c r="C89" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="20"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="13"/>
-      <c r="C90" s="10" t="s">
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="60"/>
+      <c r="J89" s="60"/>
+      <c r="K89" s="60"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="68"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="61"/>
+      <c r="C90" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="13" t="s">
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="20" t="n">
+      <c r="I90" s="60"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="68" t="n">
         <f aca="false">SUM(M91:M97)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="13"/>
-      <c r="C91" s="10" t="s">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="61"/>
+      <c r="C91" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="10" t="s">
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="20"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="13"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="10" t="s">
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="68"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="61"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="20"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="44" t="s">
+      <c r="J92" s="60"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="68"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="46" t="n">
+      <c r="C93" s="70"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="71" t="n">
         <f aca="false">SUM(F94:F96)</f>
         <v>0</v>
       </c>
-      <c r="G93" s="10"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="10" t="s">
+      <c r="G93" s="60"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="20"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="13"/>
-      <c r="C94" s="10" t="s">
+      <c r="J93" s="60"/>
+      <c r="K93" s="60"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="68"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="61"/>
+      <c r="C94" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="10" t="s">
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="68"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="61"/>
+      <c r="I94" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="14"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="13"/>
-      <c r="C95" s="10" t="s">
+      <c r="J94" s="60"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="60"/>
+      <c r="M94" s="62"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="61"/>
+      <c r="C95" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="10" t="s">
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="61"/>
+      <c r="I95" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="14"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="13"/>
-      <c r="C96" s="10" t="s">
+      <c r="J95" s="60"/>
+      <c r="K95" s="60"/>
+      <c r="L95" s="60"/>
+      <c r="M95" s="62"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="61"/>
+      <c r="C96" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="10" t="s">
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="20"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="13"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="10" t="s">
+      <c r="J96" s="60"/>
+      <c r="K96" s="60"/>
+      <c r="L96" s="60"/>
+      <c r="M96" s="68"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="61"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="61"/>
+      <c r="I97" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="14"/>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="13"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="13" t="s">
+      <c r="J97" s="60"/>
+      <c r="K97" s="60"/>
+      <c r="L97" s="60"/>
+      <c r="M97" s="62"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="61"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="54"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="42" t="s">
+      <c r="I98" s="60"/>
+      <c r="J98" s="60"/>
+      <c r="K98" s="60"/>
+      <c r="L98" s="60"/>
+      <c r="M98" s="74"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="43" t="n">
+      <c r="C99" s="73"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="67" t="n">
         <f aca="false">+F100+F106+F111</f>
         <v>0</v>
       </c>
-      <c r="G99" s="10"/>
-      <c r="H99" s="42" t="s">
+      <c r="G99" s="60"/>
+      <c r="H99" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="I99" s="47"/>
-      <c r="J99" s="47"/>
-      <c r="K99" s="47"/>
-      <c r="L99" s="47"/>
-      <c r="M99" s="43" t="n">
+      <c r="I99" s="73"/>
+      <c r="J99" s="73"/>
+      <c r="K99" s="73"/>
+      <c r="L99" s="73"/>
+      <c r="M99" s="67" t="n">
         <f aca="false">+M88+M90+M98</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="13" t="s">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="20" t="n">
+      <c r="C100" s="60"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="68" t="n">
         <f aca="false">SUM(F101:F105)</f>
         <v>0</v>
       </c>
-      <c r="G100" s="10"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="46"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="13"/>
-      <c r="C101" s="10" t="s">
+      <c r="G100" s="60"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="60"/>
+      <c r="J100" s="60"/>
+      <c r="K100" s="60"/>
+      <c r="L100" s="60"/>
+      <c r="M100" s="71"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="61"/>
+      <c r="C101" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="13" t="s">
+      <c r="D101" s="60"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="20"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="13"/>
-      <c r="C102" s="10" t="s">
+      <c r="I101" s="60"/>
+      <c r="J101" s="60"/>
+      <c r="K101" s="60"/>
+      <c r="L101" s="60"/>
+      <c r="M101" s="68"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="61"/>
+      <c r="C102" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="13" t="s">
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="68"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="27"/>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="13"/>
-      <c r="C103" s="10" t="s">
+      <c r="I102" s="60"/>
+      <c r="J102" s="60"/>
+      <c r="K102" s="60"/>
+      <c r="L102" s="60"/>
+      <c r="M102" s="75"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="61"/>
+      <c r="C103" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="42" t="s">
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="I103" s="47"/>
-      <c r="J103" s="47"/>
-      <c r="K103" s="47"/>
-      <c r="L103" s="47"/>
-      <c r="M103" s="43" t="n">
+      <c r="I103" s="73"/>
+      <c r="J103" s="73"/>
+      <c r="K103" s="73"/>
+      <c r="L103" s="73"/>
+      <c r="M103" s="67" t="n">
         <f aca="false">+M101+M102</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="13"/>
-      <c r="C104" s="10" t="s">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="61"/>
+      <c r="C104" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="20"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="13"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="13" t="s">
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="60"/>
+      <c r="J104" s="60"/>
+      <c r="K104" s="60"/>
+      <c r="L104" s="60"/>
+      <c r="M104" s="68"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="61"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="60"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
-      <c r="L105" s="10"/>
-      <c r="M105" s="20" t="n">
+      <c r="I105" s="60"/>
+      <c r="J105" s="60"/>
+      <c r="K105" s="60"/>
+      <c r="L105" s="60"/>
+      <c r="M105" s="68" t="n">
         <f aca="false">+M103+M99</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="13" t="s">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="20" t="n">
+      <c r="C106" s="60"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="68" t="n">
         <f aca="false">SUM(F107:F109)</f>
         <v>0</v>
       </c>
-      <c r="G106" s="10"/>
-      <c r="H106" s="13" t="s">
+      <c r="G106" s="60"/>
+      <c r="H106" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10"/>
-      <c r="L106" s="10"/>
-      <c r="M106" s="55" t="n">
+      <c r="I106" s="60"/>
+      <c r="J106" s="60"/>
+      <c r="K106" s="60"/>
+      <c r="L106" s="60"/>
+      <c r="M106" s="76" t="n">
         <f aca="false">-M105*0.25</f>
         <v>-0</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="13"/>
-      <c r="C107" s="10" t="s">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="61"/>
+      <c r="C107" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="42" t="s">
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="I107" s="47"/>
-      <c r="J107" s="47"/>
-      <c r="K107" s="47"/>
-      <c r="L107" s="47"/>
-      <c r="M107" s="43" t="n">
+      <c r="I107" s="73"/>
+      <c r="J107" s="73"/>
+      <c r="K107" s="73"/>
+      <c r="L107" s="73"/>
+      <c r="M107" s="67" t="n">
         <f aca="false">M105+M106</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="13"/>
-      <c r="C108" s="10" t="s">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="61"/>
+      <c r="C108" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="40"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="16"/>
-      <c r="L108" s="16"/>
-      <c r="M108" s="41"/>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="13"/>
-      <c r="C109" s="10" t="s">
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="63"/>
+      <c r="I108" s="64"/>
+      <c r="J108" s="64"/>
+      <c r="K108" s="64"/>
+      <c r="L108" s="64"/>
+      <c r="M108" s="65"/>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="61"/>
+      <c r="C109" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="13"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="29" t="s">
+      <c r="D109" s="60"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="60"/>
+      <c r="I109" s="60"/>
+      <c r="J109" s="60"/>
+      <c r="K109" s="60"/>
+      <c r="L109" s="60"/>
+      <c r="M109" s="60"/>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="61"/>
+      <c r="C110" s="60"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="60"/>
+      <c r="J110" s="60"/>
+      <c r="K110" s="60"/>
+      <c r="L110" s="60"/>
+      <c r="M110" s="60"/>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="20" t="n">
+      <c r="C111" s="60"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="68" t="n">
         <f aca="false">SUM(F112:F113)</f>
         <v>0</v>
       </c>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="10"/>
-      <c r="M111" s="10"/>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="13"/>
-      <c r="C112" s="10" t="s">
+      <c r="G111" s="60"/>
+      <c r="H111" s="60"/>
+      <c r="I111" s="60"/>
+      <c r="J111" s="60"/>
+      <c r="K111" s="60"/>
+      <c r="L111" s="60"/>
+      <c r="M111" s="60"/>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="61"/>
+      <c r="C112" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="10"/>
-      <c r="M112" s="10"/>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="13"/>
-      <c r="C113" s="10" t="s">
+      <c r="D112" s="60"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="60"/>
+      <c r="J112" s="60"/>
+      <c r="K112" s="60"/>
+      <c r="L112" s="60"/>
+      <c r="M112" s="60"/>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="61"/>
+      <c r="C113" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="10"/>
-      <c r="M113" s="10"/>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="40"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10"/>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="2" t="s">
+      <c r="D113" s="60"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="60"/>
+      <c r="I113" s="60"/>
+      <c r="J113" s="60"/>
+      <c r="K113" s="60"/>
+      <c r="L113" s="60"/>
+      <c r="M113" s="60"/>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="63"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="78"/>
+      <c r="G114" s="60"/>
+      <c r="H114" s="60"/>
+      <c r="I114" s="60"/>
+      <c r="J114" s="60"/>
+      <c r="K114" s="60"/>
+      <c r="L114" s="60"/>
+      <c r="M114" s="60"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="F117" s="57" t="e">
+      <c r="F117" s="79" t="e">
         <f aca="false">F87/F100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="2" t="s">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="F118" s="57" t="e">
+      <c r="F118" s="79" t="e">
         <f aca="false">-M102/M86</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="2" t="s">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="F119" s="58" t="e">
+      <c r="F119" s="80" t="e">
         <f aca="false">+M99/F86</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="2" t="s">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="F120" s="58" t="e">
+      <c r="F120" s="80" t="e">
         <f aca="false">+M107/M86</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="2" t="s">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="58" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="39" t="s">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C123" s="39"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="39" t="s">
+      <c r="C123" s="59"/>
+      <c r="D123" s="59"/>
+      <c r="E123" s="59"/>
+      <c r="F123" s="59"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="I123" s="39"/>
-      <c r="J123" s="39"/>
-      <c r="K123" s="39"/>
-      <c r="L123" s="39"/>
-      <c r="M123" s="39"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="13"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10"/>
-      <c r="L124" s="10"/>
-      <c r="M124" s="14"/>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="40" t="s">
+      <c r="I123" s="59"/>
+      <c r="J123" s="59"/>
+      <c r="K123" s="59"/>
+      <c r="L123" s="59"/>
+      <c r="M123" s="59"/>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="61"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="62"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="61"/>
+      <c r="I124" s="60"/>
+      <c r="J124" s="60"/>
+      <c r="K124" s="60"/>
+      <c r="L124" s="60"/>
+      <c r="M124" s="62"/>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="40" t="s">
+      <c r="C125" s="64"/>
+      <c r="D125" s="64"/>
+      <c r="E125" s="64"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="I125" s="16"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="16"/>
-      <c r="L125" s="16"/>
-      <c r="M125" s="41"/>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="42" t="s">
+      <c r="I125" s="64"/>
+      <c r="J125" s="64"/>
+      <c r="K125" s="64"/>
+      <c r="L125" s="64"/>
+      <c r="M125" s="65"/>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="43" t="n">
+      <c r="C126" s="60"/>
+      <c r="D126" s="60"/>
+      <c r="E126" s="60"/>
+      <c r="F126" s="67" t="n">
         <f aca="false">+F127+F133</f>
         <v>0</v>
       </c>
-      <c r="G126" s="10"/>
-      <c r="H126" s="13" t="s">
+      <c r="G126" s="60"/>
+      <c r="H126" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
-      <c r="K126" s="10"/>
-      <c r="L126" s="10"/>
-      <c r="M126" s="20"/>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="44" t="s">
+      <c r="I126" s="60"/>
+      <c r="J126" s="60"/>
+      <c r="K126" s="60"/>
+      <c r="L126" s="60"/>
+      <c r="M126" s="68"/>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C127" s="45"/>
-      <c r="D127" s="45"/>
-      <c r="E127" s="45"/>
-      <c r="F127" s="46" t="n">
+      <c r="C127" s="70"/>
+      <c r="D127" s="70"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="71" t="n">
         <f aca="false">SUM(F128:F131)</f>
         <v>0</v>
       </c>
-      <c r="G127" s="10"/>
-      <c r="H127" s="13" t="s">
+      <c r="G127" s="60"/>
+      <c r="H127" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
-      <c r="L127" s="10"/>
-      <c r="M127" s="53"/>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="13"/>
-      <c r="C128" s="10" t="s">
+      <c r="I127" s="60"/>
+      <c r="J127" s="60"/>
+      <c r="K127" s="60"/>
+      <c r="L127" s="60"/>
+      <c r="M127" s="72"/>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="61"/>
+      <c r="C128" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="42" t="s">
+      <c r="D128" s="60"/>
+      <c r="E128" s="60"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="60"/>
+      <c r="H128" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="I128" s="47"/>
-      <c r="J128" s="47"/>
-      <c r="K128" s="47"/>
-      <c r="L128" s="47"/>
-      <c r="M128" s="43" t="n">
+      <c r="I128" s="73"/>
+      <c r="J128" s="73"/>
+      <c r="K128" s="73"/>
+      <c r="L128" s="73"/>
+      <c r="M128" s="67" t="n">
         <f aca="false">+M126+M127</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="13"/>
-      <c r="C129" s="10" t="s">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="61"/>
+      <c r="C129" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
-      <c r="L129" s="10"/>
-      <c r="M129" s="20"/>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="13"/>
-      <c r="C130" s="10" t="s">
+      <c r="D129" s="60"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="60"/>
+      <c r="H129" s="61"/>
+      <c r="I129" s="60"/>
+      <c r="J129" s="60"/>
+      <c r="K129" s="60"/>
+      <c r="L129" s="60"/>
+      <c r="M129" s="68"/>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="61"/>
+      <c r="C130" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="13" t="s">
+      <c r="D130" s="60"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="68"/>
+      <c r="G130" s="60"/>
+      <c r="H130" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="10"/>
-      <c r="M130" s="20" t="n">
+      <c r="I130" s="60"/>
+      <c r="J130" s="60"/>
+      <c r="K130" s="60"/>
+      <c r="L130" s="60"/>
+      <c r="M130" s="68" t="n">
         <f aca="false">SUM(M131:M137)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="13"/>
-      <c r="C131" s="10" t="s">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="61"/>
+      <c r="C131" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="10" t="s">
+      <c r="D131" s="60"/>
+      <c r="E131" s="60"/>
+      <c r="F131" s="68"/>
+      <c r="G131" s="60"/>
+      <c r="H131" s="61"/>
+      <c r="I131" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="10"/>
-      <c r="M131" s="20"/>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="13"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="10" t="s">
+      <c r="J131" s="60"/>
+      <c r="K131" s="60"/>
+      <c r="L131" s="60"/>
+      <c r="M131" s="68"/>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="61"/>
+      <c r="C132" s="60"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="60"/>
+      <c r="F132" s="68"/>
+      <c r="G132" s="60"/>
+      <c r="H132" s="61"/>
+      <c r="I132" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="J132" s="10"/>
-      <c r="K132" s="10"/>
-      <c r="L132" s="10"/>
-      <c r="M132" s="20"/>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="44" t="s">
+      <c r="J132" s="60"/>
+      <c r="K132" s="60"/>
+      <c r="L132" s="60"/>
+      <c r="M132" s="68"/>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C133" s="45"/>
-      <c r="D133" s="45"/>
-      <c r="E133" s="45"/>
-      <c r="F133" s="46" t="n">
+      <c r="C133" s="70"/>
+      <c r="D133" s="70"/>
+      <c r="E133" s="70"/>
+      <c r="F133" s="71" t="n">
         <f aca="false">SUM(F134:F136)</f>
         <v>0</v>
       </c>
-      <c r="G133" s="10"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="10" t="s">
+      <c r="G133" s="60"/>
+      <c r="H133" s="61"/>
+      <c r="I133" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10"/>
-      <c r="L133" s="10"/>
-      <c r="M133" s="20"/>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="13"/>
-      <c r="C134" s="10" t="s">
+      <c r="J133" s="60"/>
+      <c r="K133" s="60"/>
+      <c r="L133" s="60"/>
+      <c r="M133" s="68"/>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="61"/>
+      <c r="C134" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="10" t="s">
+      <c r="D134" s="60"/>
+      <c r="E134" s="60"/>
+      <c r="F134" s="68"/>
+      <c r="G134" s="60"/>
+      <c r="H134" s="61"/>
+      <c r="I134" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="J134" s="10"/>
-      <c r="K134" s="10"/>
-      <c r="L134" s="10"/>
-      <c r="M134" s="14"/>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="13"/>
-      <c r="C135" s="10" t="s">
+      <c r="J134" s="60"/>
+      <c r="K134" s="60"/>
+      <c r="L134" s="60"/>
+      <c r="M134" s="62"/>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="61"/>
+      <c r="C135" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="10" t="s">
+      <c r="D135" s="60"/>
+      <c r="E135" s="60"/>
+      <c r="F135" s="68"/>
+      <c r="G135" s="60"/>
+      <c r="H135" s="61"/>
+      <c r="I135" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="J135" s="10"/>
-      <c r="K135" s="10"/>
-      <c r="L135" s="10"/>
-      <c r="M135" s="14"/>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="13"/>
-      <c r="C136" s="10" t="s">
+      <c r="J135" s="60"/>
+      <c r="K135" s="60"/>
+      <c r="L135" s="60"/>
+      <c r="M135" s="62"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="61"/>
+      <c r="C136" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="10" t="s">
+      <c r="D136" s="60"/>
+      <c r="E136" s="60"/>
+      <c r="F136" s="68"/>
+      <c r="G136" s="60"/>
+      <c r="H136" s="61"/>
+      <c r="I136" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="J136" s="10"/>
-      <c r="K136" s="10"/>
-      <c r="L136" s="10"/>
-      <c r="M136" s="20"/>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="13"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="10" t="s">
+      <c r="J136" s="60"/>
+      <c r="K136" s="60"/>
+      <c r="L136" s="60"/>
+      <c r="M136" s="68"/>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="61"/>
+      <c r="C137" s="60"/>
+      <c r="D137" s="60"/>
+      <c r="E137" s="60"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="60"/>
+      <c r="H137" s="61"/>
+      <c r="I137" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="J137" s="10"/>
-      <c r="K137" s="10"/>
-      <c r="L137" s="10"/>
-      <c r="M137" s="14"/>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="13"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="13" t="s">
+      <c r="J137" s="60"/>
+      <c r="K137" s="60"/>
+      <c r="L137" s="60"/>
+      <c r="M137" s="62"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="61"/>
+      <c r="C138" s="60"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="60"/>
+      <c r="F138" s="68"/>
+      <c r="G138" s="60"/>
+      <c r="H138" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10"/>
-      <c r="K138" s="10"/>
-      <c r="L138" s="10"/>
-      <c r="M138" s="54"/>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="42" t="s">
+      <c r="I138" s="60"/>
+      <c r="J138" s="60"/>
+      <c r="K138" s="60"/>
+      <c r="L138" s="60"/>
+      <c r="M138" s="74"/>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C139" s="47"/>
-      <c r="D139" s="47"/>
-      <c r="E139" s="47"/>
-      <c r="F139" s="43" t="n">
+      <c r="C139" s="73"/>
+      <c r="D139" s="73"/>
+      <c r="E139" s="73"/>
+      <c r="F139" s="67" t="n">
         <f aca="false">+F140+F146+F151</f>
         <v>0</v>
       </c>
-      <c r="G139" s="10"/>
-      <c r="H139" s="42" t="s">
+      <c r="G139" s="60"/>
+      <c r="H139" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="I139" s="47"/>
-      <c r="J139" s="47"/>
-      <c r="K139" s="47"/>
-      <c r="L139" s="47"/>
-      <c r="M139" s="43" t="n">
+      <c r="I139" s="73"/>
+      <c r="J139" s="73"/>
+      <c r="K139" s="73"/>
+      <c r="L139" s="73"/>
+      <c r="M139" s="67" t="n">
         <f aca="false">+M128+M130+M138</f>
         <v>0</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="13" t="s">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="20" t="n">
+      <c r="C140" s="60"/>
+      <c r="D140" s="60"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="68" t="n">
         <f aca="false">SUM(F141:F145)</f>
         <v>0</v>
       </c>
-      <c r="G140" s="10"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="10"/>
-      <c r="K140" s="10"/>
-      <c r="L140" s="10"/>
-      <c r="M140" s="46"/>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="13"/>
-      <c r="C141" s="10" t="s">
+      <c r="G140" s="60"/>
+      <c r="H140" s="61"/>
+      <c r="I140" s="60"/>
+      <c r="J140" s="60"/>
+      <c r="K140" s="60"/>
+      <c r="L140" s="60"/>
+      <c r="M140" s="71"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="61"/>
+      <c r="C141" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="13" t="s">
+      <c r="D141" s="60"/>
+      <c r="E141" s="60"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="60"/>
+      <c r="H141" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-      <c r="K141" s="10"/>
-      <c r="L141" s="10"/>
-      <c r="M141" s="20"/>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="13"/>
-      <c r="C142" s="10" t="s">
+      <c r="I141" s="60"/>
+      <c r="J141" s="60"/>
+      <c r="K141" s="60"/>
+      <c r="L141" s="60"/>
+      <c r="M141" s="68"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="61"/>
+      <c r="C142" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="13" t="s">
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="68"/>
+      <c r="G142" s="60"/>
+      <c r="H142" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
-      <c r="M142" s="27"/>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="13"/>
-      <c r="C143" s="10" t="s">
+      <c r="I142" s="60"/>
+      <c r="J142" s="60"/>
+      <c r="K142" s="60"/>
+      <c r="L142" s="60"/>
+      <c r="M142" s="75"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="61"/>
+      <c r="C143" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="42" t="s">
+      <c r="D143" s="60"/>
+      <c r="E143" s="60"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="60"/>
+      <c r="H143" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="I143" s="47"/>
-      <c r="J143" s="47"/>
-      <c r="K143" s="47"/>
-      <c r="L143" s="47"/>
-      <c r="M143" s="43" t="n">
+      <c r="I143" s="73"/>
+      <c r="J143" s="73"/>
+      <c r="K143" s="73"/>
+      <c r="L143" s="73"/>
+      <c r="M143" s="67" t="n">
         <f aca="false">+M141+M142</f>
         <v>0</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="13"/>
-      <c r="C144" s="10" t="s">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="61"/>
+      <c r="C144" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="20"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="13"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10"/>
-      <c r="K144" s="10"/>
-      <c r="L144" s="10"/>
-      <c r="M144" s="20"/>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="13"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="13" t="s">
+      <c r="D144" s="60"/>
+      <c r="E144" s="60"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="60"/>
+      <c r="H144" s="61"/>
+      <c r="I144" s="60"/>
+      <c r="J144" s="60"/>
+      <c r="K144" s="60"/>
+      <c r="L144" s="60"/>
+      <c r="M144" s="68"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="61"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="60"/>
+      <c r="E145" s="60"/>
+      <c r="F145" s="68"/>
+      <c r="G145" s="60"/>
+      <c r="H145" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="I145" s="10"/>
-      <c r="J145" s="10"/>
-      <c r="K145" s="10"/>
-      <c r="L145" s="10"/>
-      <c r="M145" s="20" t="n">
+      <c r="I145" s="60"/>
+      <c r="J145" s="60"/>
+      <c r="K145" s="60"/>
+      <c r="L145" s="60"/>
+      <c r="M145" s="68" t="n">
         <f aca="false">+M143+M139</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="13" t="s">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="20" t="n">
+      <c r="C146" s="60"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="60"/>
+      <c r="F146" s="68" t="n">
         <f aca="false">SUM(F147:F149)</f>
         <v>0</v>
       </c>
-      <c r="G146" s="10"/>
-      <c r="H146" s="13" t="s">
+      <c r="G146" s="60"/>
+      <c r="H146" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="10"/>
-      <c r="M146" s="55" t="n">
+      <c r="I146" s="60"/>
+      <c r="J146" s="60"/>
+      <c r="K146" s="60"/>
+      <c r="L146" s="60"/>
+      <c r="M146" s="76" t="n">
         <f aca="false">-M145*0.25</f>
         <v>-0</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="13"/>
-      <c r="C147" s="10" t="s">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="61"/>
+      <c r="C147" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="42" t="s">
+      <c r="D147" s="60"/>
+      <c r="E147" s="60"/>
+      <c r="F147" s="68"/>
+      <c r="G147" s="60"/>
+      <c r="H147" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="I147" s="47"/>
-      <c r="J147" s="47"/>
-      <c r="K147" s="47"/>
-      <c r="L147" s="47"/>
-      <c r="M147" s="43" t="n">
+      <c r="I147" s="73"/>
+      <c r="J147" s="73"/>
+      <c r="K147" s="73"/>
+      <c r="L147" s="73"/>
+      <c r="M147" s="67" t="n">
         <f aca="false">M145+M146</f>
         <v>0</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="13"/>
-      <c r="C148" s="10" t="s">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="61"/>
+      <c r="C148" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="20"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="40"/>
-      <c r="I148" s="16"/>
-      <c r="J148" s="16"/>
-      <c r="K148" s="16"/>
-      <c r="L148" s="16"/>
-      <c r="M148" s="41"/>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="13"/>
-      <c r="C149" s="10" t="s">
+      <c r="D148" s="60"/>
+      <c r="E148" s="60"/>
+      <c r="F148" s="68"/>
+      <c r="G148" s="60"/>
+      <c r="H148" s="63"/>
+      <c r="I148" s="64"/>
+      <c r="J148" s="64"/>
+      <c r="K148" s="64"/>
+      <c r="L148" s="64"/>
+      <c r="M148" s="65"/>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="61"/>
+      <c r="C149" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10"/>
-      <c r="K149" s="10"/>
-      <c r="L149" s="10"/>
-      <c r="M149" s="10"/>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="13"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10"/>
-      <c r="K150" s="10"/>
-      <c r="L150" s="10"/>
-      <c r="M150" s="10"/>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="29" t="s">
+      <c r="D149" s="60"/>
+      <c r="E149" s="60"/>
+      <c r="F149" s="68"/>
+      <c r="G149" s="60"/>
+      <c r="H149" s="60"/>
+      <c r="I149" s="60"/>
+      <c r="J149" s="60"/>
+      <c r="K149" s="60"/>
+      <c r="L149" s="60"/>
+      <c r="M149" s="60"/>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="61"/>
+      <c r="C150" s="60"/>
+      <c r="D150" s="60"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="68"/>
+      <c r="G150" s="60"/>
+      <c r="H150" s="60"/>
+      <c r="I150" s="60"/>
+      <c r="J150" s="60"/>
+      <c r="K150" s="60"/>
+      <c r="L150" s="60"/>
+      <c r="M150" s="60"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="20" t="n">
+      <c r="C151" s="60"/>
+      <c r="D151" s="60"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="68" t="n">
         <f aca="false">SUM(F152:F153)</f>
         <v>0</v>
       </c>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="10"/>
-      <c r="K151" s="10"/>
-      <c r="L151" s="10"/>
-      <c r="M151" s="10"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="13"/>
-      <c r="C152" s="10" t="s">
+      <c r="G151" s="60"/>
+      <c r="H151" s="60"/>
+      <c r="I151" s="60"/>
+      <c r="J151" s="60"/>
+      <c r="K151" s="60"/>
+      <c r="L151" s="60"/>
+      <c r="M151" s="60"/>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="61"/>
+      <c r="C152" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="10"/>
-      <c r="K152" s="10"/>
-      <c r="L152" s="10"/>
-      <c r="M152" s="10"/>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="13"/>
-      <c r="C153" s="10" t="s">
+      <c r="D152" s="60"/>
+      <c r="E152" s="60"/>
+      <c r="F152" s="68"/>
+      <c r="G152" s="60"/>
+      <c r="H152" s="60"/>
+      <c r="I152" s="60"/>
+      <c r="J152" s="60"/>
+      <c r="K152" s="60"/>
+      <c r="L152" s="60"/>
+      <c r="M152" s="60"/>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="61"/>
+      <c r="C153" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="10"/>
-      <c r="K153" s="10"/>
-      <c r="L153" s="10"/>
-      <c r="M153" s="10"/>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="40"/>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="30"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="10"/>
-      <c r="K154" s="10"/>
-      <c r="L154" s="10"/>
-      <c r="M154" s="10"/>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="2" t="s">
+      <c r="D153" s="60"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="68"/>
+      <c r="G153" s="60"/>
+      <c r="H153" s="60"/>
+      <c r="I153" s="60"/>
+      <c r="J153" s="60"/>
+      <c r="K153" s="60"/>
+      <c r="L153" s="60"/>
+      <c r="M153" s="60"/>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="63"/>
+      <c r="C154" s="64"/>
+      <c r="D154" s="64"/>
+      <c r="E154" s="64"/>
+      <c r="F154" s="78"/>
+      <c r="G154" s="60"/>
+      <c r="H154" s="60"/>
+      <c r="I154" s="60"/>
+      <c r="J154" s="60"/>
+      <c r="K154" s="60"/>
+      <c r="L154" s="60"/>
+      <c r="M154" s="60"/>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C157" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="F157" s="57" t="e">
+      <c r="F157" s="79" t="e">
         <f aca="false">F127/F140</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="2" t="s">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C158" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="F158" s="57" t="e">
+      <c r="F158" s="79" t="e">
         <f aca="false">-M142/M126</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="2" t="s">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="F159" s="68" t="e">
+      <c r="F159" s="89" t="e">
         <f aca="false">+M139/F126</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="2" t="s">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C160" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="F160" s="58" t="e">
+      <c r="F160" s="80" t="e">
         <f aca="false">+M147/M126</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="31"/>
-      <c r="C162" s="31"/>
-      <c r="D162" s="31"/>
-      <c r="E162" s="31"/>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="31" t="s">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="90"/>
+      <c r="C162" s="90"/>
+      <c r="D162" s="90"/>
+      <c r="E162" s="90"/>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="C163" s="69" t="s">
+      <c r="C163" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="D163" s="69" t="s">
+      <c r="D163" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="E163" s="69" t="s">
+      <c r="E163" s="91" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="2" t="s">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="C164" s="70" t="n">
+      <c r="C164" s="92" t="n">
         <f aca="false">+F50</f>
         <v>0</v>
       </c>
-      <c r="D164" s="70" t="e">
+      <c r="D164" s="92" t="e">
         <f aca="false">+F117</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E164" s="70" t="e">
+      <c r="E164" s="92" t="e">
         <f aca="false">+F157</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="2" t="s">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="C165" s="70" t="n">
+      <c r="C165" s="92" t="n">
         <f aca="false">+F51*100</f>
         <v>0</v>
       </c>
-      <c r="D165" s="70" t="e">
+      <c r="D165" s="92" t="e">
         <f aca="false">+F118*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E165" s="70" t="e">
+      <c r="E165" s="92" t="e">
         <f aca="false">+F158*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="2" t="s">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C166" s="71" t="n">
+      <c r="C166" s="93" t="n">
         <f aca="false">+F52</f>
         <v>0</v>
       </c>
-      <c r="D166" s="71" t="e">
+      <c r="D166" s="93" t="e">
         <f aca="false">+F119</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E166" s="71" t="e">
+      <c r="E166" s="93" t="e">
         <f aca="false">+F159</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="31" t="s">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="C167" s="72" t="n">
+      <c r="C167" s="94" t="n">
         <f aca="false">+F53</f>
         <v>0</v>
       </c>
-      <c r="D167" s="72" t="e">
+      <c r="D167" s="94" t="e">
         <f aca="false">+F120</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E167" s="72" t="e">
+      <c r="E167" s="94" t="e">
         <f aca="false">+F160</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="2" t="s">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C183" s="58" t="s">
         <v>126</v>
       </c>
     </row>

--- a/topic_1_img/topic_1_ex_template.xlsx
+++ b/topic_1_img/topic_1_ex_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1_transactions" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="126">
   <si>
     <t xml:space="preserve">#</t>
   </si>
   <si>
-    <t xml:space="preserve">Current Assts</t>
+    <t xml:space="preserve">Current assets</t>
   </si>
   <si>
     <t xml:space="preserve">Fixed Assets</t>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">Revenues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current assets</t>
   </si>
   <si>
     <t xml:space="preserve">Cost of service</t>
@@ -692,7 +689,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -918,10 +915,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1156,9 +1149,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>349920</xdr:colOff>
+      <xdr:colOff>349560</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1168,7 +1161,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="142920" y="209520"/>
-          <a:ext cx="9409320" cy="1054800"/>
+          <a:ext cx="9408960" cy="1054440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1203,16 +1196,20 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
             <a:t>Honda Motor Corporation of Japan is a leading international manufacturer of automobiles, motorcycles, all-terrain vehicles, and personal watercraft. As a Japanese company, it follows Japanese GAAP (“accounting standards”) and reports its financial statements in billions of yen (the sign for yen is ). Its recent balance sheet contained the following items (in billions). </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1225,7 +1222,9 @@
               <a:tab algn="l" pos="0"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1239,16 +1238,20 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
             <a:t>Prepare a balance sheet as of March 31, the current year, solving for the missing amount. </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1261,7 +1264,9 @@
               <a:tab algn="l" pos="0"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1275,16 +1280,20 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1306,9 +1315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>378360</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1318,7 +1327,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="614160" y="162000"/>
-          <a:ext cx="12561480" cy="797400"/>
+          <a:ext cx="12561120" cy="797040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1353,16 +1362,20 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
             <a:t>Walgreen Co. is one of the nation’s leading drugstore chains. Its recent income statement contained the following items (in millions). </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1376,16 +1389,20 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
             <a:t>Prepare an income statement for the year ended August 31, the current year.  Confirm the values of totals and subtotals.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1398,7 +1415,9 @@
               <a:tab algn="l" pos="0"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1412,16 +1431,20 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
             <a:t>Note: (*) In the United States and other countries, “provision for income taxes” is widely used as a synonym for “income tax expense”. </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1443,9 +1466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>25920</xdr:colOff>
+      <xdr:colOff>25560</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1454,8 +1477,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="614160" y="162000"/>
-          <a:ext cx="17835480" cy="2347920"/>
+          <a:off x="614520" y="162000"/>
+          <a:ext cx="17844480" cy="2347560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1490,16 +1513,20 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
             <a:t>"SuperConsulting" Co. is a management consulting company that recently published its  Financial Statements.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1513,16 +1540,20 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
             <a:t>The CEO is deciding whether to buy or rent a new office in Valencia. He expects that the new office will increase the revenues by 30% increasing the cost of service by just 5% because he is not planning to hire more employees. Both revenues and costs are expected to be in cash. Furthermore, the CEO knows that he will need to spend 100 euros on advertising, payable within the year. The rent of the office will cost 600 euros per year. A loan for the value of the office, 50.000 euros, would pay 300 euros in interest per year. The office's yearly depreciation would be 500 euros.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1535,7 +1566,9 @@
               <a:tab algn="l" pos="0"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1548,7 +1581,9 @@
               <a:tab algn="l" pos="0"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1562,16 +1597,20 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
             <a:t>To do: </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1584,7 +1623,9 @@
               <a:tab algn="l" pos="0"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1598,16 +1639,20 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
             <a:t>1) Compute the Current Ratio, Financial Expenses Ratio, and Return Over Assets of the company in the current situation.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1621,16 +1666,20 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
             <a:t>2) Update the Financial Statements for the case of renting and the case of buying the office. Consider everything constant except the items mentioned above.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1644,16 +1693,20 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
             <a:t>3) Calculate again the Financial Ratios. Discuss what is the best strategy and why.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1666,7 +1719,9 @@
               <a:tab algn="l" pos="0"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1683,9 +1738,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>384480</xdr:colOff>
+      <xdr:colOff>384120</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1695,7 +1750,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="504720" y="32101200"/>
-          <a:ext cx="6012000" cy="1113480"/>
+          <a:ext cx="6012720" cy="1113120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,16 +1785,20 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
             <a:t>Key questions to discuss in class:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1753,16 +1812,20 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
             <a:t>- Which scenario is worst in terms of liquidity and solvency?</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1776,16 +1839,20 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
             </a:rPr>
             <a:t>- Why does ROA fall so much in the third case? Because assets increase a lot, not by a reduction in profits (Net margin is quite stable)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1975,11 +2042,11 @@
   </sheetPr>
   <dimension ref="B2:T66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="1.89"/>
@@ -2614,7 +2681,7 @@
     </row>
     <row r="27" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="21" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
@@ -2624,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O27" s="24" t="n">
         <f aca="false">+P14+P12</f>
@@ -2634,14 +2701,14 @@
     <row r="28" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="13"/>
       <c r="E28" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28" s="20" t="n">
         <f aca="false">+D19</f>
         <v>0</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -2671,7 +2738,7 @@
       </c>
       <c r="H30" s="2"/>
       <c r="J30" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O30" s="20" t="n">
         <f aca="false">+SUM(O31:O37)</f>
@@ -2681,12 +2748,12 @@
     <row r="31" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="13"/>
       <c r="E31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="20"/>
       <c r="J31" s="13"/>
       <c r="K31" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O31" s="14"/>
     </row>
@@ -2695,7 +2762,7 @@
       <c r="H32" s="20"/>
       <c r="J32" s="13"/>
       <c r="K32" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O32" s="20" t="n">
         <f aca="false">+P7</f>
@@ -2704,7 +2771,7 @@
     </row>
     <row r="33" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -2715,7 +2782,7 @@
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O33" s="20" t="n">
         <f aca="false">+P15</f>
@@ -2725,7 +2792,7 @@
     <row r="34" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="13"/>
       <c r="E34" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H34" s="20" t="n">
         <f aca="false">+H19</f>
@@ -2733,31 +2800,31 @@
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O34" s="14"/>
     </row>
     <row r="35" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="13"/>
       <c r="E35" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" s="20"/>
       <c r="J35" s="13"/>
       <c r="K35" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O35" s="14"/>
     </row>
     <row r="36" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="13"/>
       <c r="E36" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H36" s="20"/>
       <c r="J36" s="13"/>
       <c r="K36" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O36" s="20" t="n">
         <f aca="false">+P10</f>
@@ -2769,7 +2836,7 @@
       <c r="H37" s="20"/>
       <c r="J37" s="13"/>
       <c r="K37" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O37" s="14"/>
     </row>
@@ -2777,7 +2844,7 @@
       <c r="D38" s="13"/>
       <c r="H38" s="20"/>
       <c r="J38" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O38" s="26" t="n">
         <f aca="false">P16</f>
@@ -2786,7 +2853,7 @@
     </row>
     <row r="39" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
@@ -2796,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
@@ -2809,7 +2876,7 @@
     </row>
     <row r="40" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H40" s="20" t="n">
         <f aca="false">+H41+H42+H43+H44</f>
@@ -2821,25 +2888,25 @@
     <row r="41" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="13"/>
       <c r="E41" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H41" s="20"/>
       <c r="J41" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O41" s="20"/>
     </row>
     <row r="42" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="13"/>
       <c r="E42" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H42" s="20" t="n">
         <f aca="false">+L19</f>
         <v>0</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O42" s="27" t="n">
         <f aca="false">+P18</f>
@@ -2849,11 +2916,11 @@
     <row r="43" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="13"/>
       <c r="E43" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H43" s="20"/>
       <c r="J43" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -2867,7 +2934,7 @@
     <row r="44" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="13"/>
       <c r="E44" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H44" s="20" t="n">
         <f aca="false">+M19</f>
@@ -2880,7 +2947,7 @@
       <c r="D45" s="13"/>
       <c r="H45" s="20"/>
       <c r="J45" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O45" s="20" t="n">
         <f aca="false">+O39+O43</f>
@@ -2896,21 +2963,21 @@
         <v>0</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O46" s="28"/>
     </row>
     <row r="47" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="13"/>
       <c r="E47" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H47" s="20" t="n">
         <f aca="false">+N19</f>
         <v>0</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -2924,7 +2991,7 @@
     <row r="48" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="13"/>
       <c r="E48" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H48" s="20"/>
       <c r="J48" s="15"/>
@@ -2937,7 +3004,7 @@
     <row r="49" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="13"/>
       <c r="E49" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H49" s="20"/>
     </row>
@@ -2947,7 +3014,7 @@
     </row>
     <row r="51" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H51" s="20" t="n">
         <f aca="false">+H52+H53</f>
@@ -2957,7 +3024,7 @@
     <row r="52" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="13"/>
       <c r="E52" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H52" s="20" t="n">
         <f aca="false">+Q19</f>
@@ -3019,11 +3086,11 @@
   </sheetPr>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.19140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.19140625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="15.23"/>
@@ -3039,15 +3106,15 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>71</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="34" t="n">
         <v>3568</v>
@@ -3056,7 +3123,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="34" t="n">
         <v>788</v>
@@ -3065,7 +3132,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="34" t="n">
         <v>1279</v>
@@ -3074,7 +3141,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="34" t="n">
         <v>640</v>
@@ -3083,7 +3150,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="34" t="n">
         <v>900</v>
@@ -3092,7 +3159,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="34" t="n">
         <v>2043</v>
@@ -3101,7 +3168,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="34" t="n">
         <v>1939</v>
@@ -3110,7 +3177,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="34" t="n">
         <v>1377</v>
@@ -3120,7 +3187,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="34" t="n">
         <v>6025</v>
@@ -3129,7 +3196,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="34" t="n">
         <v>4324</v>
@@ -3138,7 +3205,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="34" t="n">
         <v>259</v>
@@ -3154,7 +3221,7 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3162,7 +3229,7 @@
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
@@ -3178,13 +3245,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,7 +3268,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="44" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
@@ -3214,7 +3281,7 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="13"/>
       <c r="C33" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -3223,7 +3290,7 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="13"/>
       <c r="C34" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -3241,7 +3308,7 @@
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="13"/>
       <c r="C36" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -3256,7 +3323,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
@@ -3269,7 +3336,7 @@
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="13"/>
       <c r="C39" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -3278,7 +3345,7 @@
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="13"/>
       <c r="C40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="20"/>
@@ -3286,7 +3353,7 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="13"/>
       <c r="C41" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -3295,7 +3362,7 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="13"/>
       <c r="C42" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -3304,7 +3371,7 @@
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="13"/>
       <c r="C43" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -3319,7 +3386,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
@@ -3331,7 +3398,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -3344,7 +3411,7 @@
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="13"/>
       <c r="C47" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -3353,7 +3420,7 @@
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="13"/>
       <c r="C48" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -3362,7 +3429,7 @@
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="13"/>
       <c r="C49" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -3371,7 +3438,7 @@
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="13"/>
       <c r="C50" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -3399,7 +3466,7 @@
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="13"/>
       <c r="C53" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -3408,7 +3475,7 @@
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="13"/>
       <c r="C54" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -3417,7 +3484,7 @@
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="13"/>
       <c r="C55" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
@@ -3432,7 +3499,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -3445,7 +3512,7 @@
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="13"/>
       <c r="C58" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
@@ -3493,7 +3560,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.67578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.67578125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.64"/>
@@ -3508,15 +3575,15 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="49" t="n">
         <v>51692</v>
@@ -3524,7 +3591,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="49" t="n">
         <v>71</v>
@@ -3532,7 +3599,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="49" t="n">
         <v>2714</v>
@@ -3540,7 +3607,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="49" t="n">
         <v>72184</v>
@@ -3552,7 +3619,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="49" t="n">
         <v>4294</v>
@@ -3562,7 +3629,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="49" t="n">
         <v>1580</v>
@@ -3570,7 +3637,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="49" t="n">
         <v>16561</v>
@@ -3578,7 +3645,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="52" t="n">
         <v>72618</v>
@@ -3588,13 +3655,13 @@
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
@@ -3619,7 +3686,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3634,7 +3701,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -3644,7 +3711,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -3665,7 +3732,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -3675,7 +3742,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -3685,7 +3752,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -3706,7 +3773,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -3716,7 +3783,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -3726,7 +3793,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -3747,7 +3814,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -3757,7 +3824,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -3767,7 +3834,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="47"/>
       <c r="D38" s="47"/>
@@ -3809,2273 +3876,2273 @@
   </sheetPr>
   <dimension ref="A16:O183"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A138" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F171" activeCellId="0" sqref="F171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.68359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="57" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="29.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="58" width="32.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="29.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="57" width="32.22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="57" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="58" width="14.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="58" width="15.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="57" width="14.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="57" width="15.73"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="57" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="58" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="57" width="14.22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="57" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="58" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="57" width="8.94"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="57" width="7.68"/>
   </cols>
   <sheetData>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="61"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="62"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="61"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="63" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="65"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="67" t="n">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="66" t="n">
         <f aca="false">+F20+F26</f>
         <v>40100</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61" t="s">
+      <c r="G19" s="59"/>
+      <c r="H19" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="68" t="n">
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="67" t="n">
         <v>8500</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71" t="n">
+      <c r="B20" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70" t="n">
         <f aca="false">+F21+F22</f>
         <v>20300</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61" t="s">
+      <c r="G20" s="59"/>
+      <c r="H20" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="71" t="n">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="60"/>
+      <c r="C21" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="72" t="n">
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="61"/>
-      <c r="C21" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="68" t="n">
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="67" t="n">
         <v>17300</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="67" t="n">
+      <c r="G21" s="59"/>
+      <c r="H21" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="66" t="n">
         <v>7700</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="61"/>
-      <c r="C22" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="68" t="n">
+      <c r="B22" s="60"/>
+      <c r="C22" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="67" t="n">
         <v>3000</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="68"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="67"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="61"/>
-      <c r="C23" s="60" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61" t="s">
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="67" t="n">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="60"/>
+      <c r="C24" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="68" t="n">
-        <v>-1800</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="61"/>
-      <c r="C24" s="60" t="s">
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="60" t="s">
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="61"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="60"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="62"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="61"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="60" t="s">
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="67" t="n">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="68" t="n">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71" t="n">
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70" t="n">
         <f aca="false">+F27</f>
         <v>19800</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="60" t="s">
+      <c r="G26" s="59"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="67" t="n">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="60"/>
+      <c r="C27" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="68" t="n">
-        <v>-1100</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="61"/>
-      <c r="C27" s="60" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="67" t="n">
+        <v>19800</v>
+      </c>
+      <c r="G27" s="59"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="68" t="n">
-        <v>19800</v>
-      </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="60" t="s">
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="61"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="60"/>
+      <c r="C28" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="62"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="61"/>
-      <c r="C28" s="60" t="s">
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="60" t="s">
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="61"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="60"/>
+      <c r="C29" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="62"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="61"/>
-      <c r="C29" s="60" t="s">
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="60" t="s">
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="67" t="n">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="60"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="68" t="n">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="61"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="60" t="s">
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="61"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="60"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="62"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="61"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="61" t="s">
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="73" t="n">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="74" t="n">
-        <v>-1600</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="67" t="n">
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="66" t="n">
         <f aca="false">+F33+F39+F44</f>
         <v>40100</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="67" t="n">
+      <c r="G32" s="59"/>
+      <c r="H32" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="66" t="n">
         <v>4300</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="68" t="n">
+      <c r="B33" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="67" t="n">
         <f aca="false">+F34+F35+F34+F36+F37</f>
         <v>1901.25</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="71"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="70"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="61"/>
-      <c r="C34" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="61" t="s">
+      <c r="B34" s="60"/>
+      <c r="C34" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="67"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="60"/>
+      <c r="C35" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="68"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="61"/>
-      <c r="C35" s="60" t="s">
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="67" t="n">
+        <v>35</v>
+      </c>
+      <c r="G35" s="59"/>
+      <c r="H35" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="68" t="n">
-        <v>35</v>
-      </c>
-      <c r="G35" s="60"/>
-      <c r="H35" s="61" t="s">
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="74" t="n">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="60"/>
+      <c r="C36" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="75" t="n">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="61"/>
-      <c r="C36" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="68" t="n">
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="67" t="n">
         <f aca="false">+-M39</f>
         <v>1066.25</v>
       </c>
-      <c r="G36" s="60"/>
-      <c r="H36" s="66" t="s">
+      <c r="G36" s="59"/>
+      <c r="H36" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="66" t="n">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="60"/>
+      <c r="C37" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="67" t="n">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="61"/>
-      <c r="C37" s="60" t="s">
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="67" t="n">
+        <v>800</v>
+      </c>
+      <c r="G37" s="59"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="67"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="60"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="68" t="n">
-        <v>800</v>
-      </c>
-      <c r="G37" s="60"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="68"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="61"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="68" t="n">
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="67" t="n">
         <v>4265</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="68" t="n">
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="67" t="n">
         <f aca="false">+F40</f>
         <v>5000</v>
       </c>
-      <c r="G39" s="60"/>
-      <c r="H39" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="76" t="n">
+      <c r="G39" s="59"/>
+      <c r="H39" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="75" t="n">
         <f aca="false">-M38*0.25</f>
         <v>-1066.25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="61"/>
-      <c r="C40" s="60" t="s">
+      <c r="B40" s="60"/>
+      <c r="C40" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="67" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G40" s="59"/>
+      <c r="H40" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="68" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G40" s="60"/>
-      <c r="H40" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="67" t="n">
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="66" t="n">
         <f aca="false">M38+M39</f>
         <v>3198.75</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="61"/>
-      <c r="C41" s="60" t="s">
+      <c r="B41" s="60"/>
+      <c r="C41" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="64"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="60"/>
+      <c r="C42" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="65"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="61"/>
-      <c r="C42" s="60" t="s">
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="60"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="61"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="60"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="68" t="n">
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="67" t="n">
         <f aca="false">+F45+F46</f>
         <v>33198.75</v>
       </c>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="61"/>
-      <c r="C45" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="68" t="n">
+      <c r="B45" s="60"/>
+      <c r="C45" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="67" t="n">
         <v>30000</v>
       </c>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="61"/>
-      <c r="C46" s="60" t="s">
+      <c r="B46" s="60"/>
+      <c r="C46" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="68" t="n">
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="67" t="n">
         <f aca="false">+M40</f>
         <v>3198.75</v>
       </c>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="63"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="58" t="s">
-        <v>84</v>
+      <c r="A49" s="57" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="F50" s="78"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="F50" s="79"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="58" t="s">
+      <c r="F51" s="78"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="F51" s="79"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="58" t="s">
+      <c r="F52" s="79"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="F52" s="80"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="58" t="s">
+      <c r="F53" s="79"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F53" s="80"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="58" t="s">
+      <c r="C55" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="58" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="80" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="81" t="s">
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="86"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="83"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="82" t="s">
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="83"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="83" t="s">
+      <c r="G61" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="84" t="s">
+      <c r="H61" s="83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="86"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="83"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="80"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="80"/>
+      <c r="H64" s="83"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="83" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="86"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="83"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="83"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" s="83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="86"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="83"/>
+      <c r="O71" s="87"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" s="80"/>
+      <c r="E72" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="F72" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="O72" s="87"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="86"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="80"/>
+      <c r="H74" s="83"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="F75" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="G75" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="86"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="80"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="80"/>
+      <c r="H77" s="83"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="80"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" s="83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="86"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="80"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="80"/>
+      <c r="F80" s="80"/>
+      <c r="G80" s="80"/>
+      <c r="H80" s="80"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="58"/>
+      <c r="L83" s="58"/>
+      <c r="M83" s="58"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="60"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="59"/>
+      <c r="M84" s="61"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" s="63"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="63"/>
+      <c r="L85" s="63"/>
+      <c r="M85" s="64"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="66" t="n">
+        <f aca="false">+F87+F93</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="59"/>
+      <c r="H86" s="60" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="87"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="84"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="84"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" s="84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="87"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="84"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="84"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="84" t="s">
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="67"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="70" t="n">
+        <f aca="false">SUM(F88:F91)</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="59"/>
+      <c r="H87" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="59"/>
+      <c r="L87" s="59"/>
+      <c r="M87" s="71"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="60"/>
+      <c r="C88" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="I88" s="72"/>
+      <c r="J88" s="72"/>
+      <c r="K88" s="72"/>
+      <c r="L88" s="72"/>
+      <c r="M88" s="66" t="n">
+        <f aca="false">+M86+M87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="60"/>
+      <c r="C89" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="59"/>
+      <c r="L89" s="59"/>
+      <c r="M89" s="67"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="60"/>
+      <c r="C90" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
+      <c r="L90" s="59"/>
+      <c r="M90" s="67" t="n">
+        <f aca="false">SUM(M91:M97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="60"/>
+      <c r="C91" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="59"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="J91" s="59"/>
+      <c r="K91" s="59"/>
+      <c r="L91" s="59"/>
+      <c r="M91" s="67"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="60"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="59" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="87"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="84"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="84"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="H69" s="84" t="s">
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
+      <c r="L92" s="59"/>
+      <c r="M92" s="67"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="69"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="70" t="n">
+        <f aca="false">SUM(F94:F96)</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="59"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J93" s="59"/>
+      <c r="K93" s="59"/>
+      <c r="L93" s="59"/>
+      <c r="M93" s="67"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="60"/>
+      <c r="C94" s="59" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="81"/>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="87"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="84"/>
-      <c r="O71" s="88"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="D72" s="81"/>
-      <c r="E72" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="F72" s="84" t="s">
+      <c r="D94" s="59"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="G72" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="O72" s="88"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="81"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="86"/>
-      <c r="H73" s="87"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="81"/>
-      <c r="D74" s="81"/>
-      <c r="E74" s="81"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="84"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="81"/>
-      <c r="D75" s="81"/>
-      <c r="E75" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="F75" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="G75" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="H75" s="84" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="81"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="81"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="86"/>
-      <c r="H76" s="87"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="81"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="81"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="81"/>
-      <c r="H77" s="84"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="81"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="F78" s="82" t="s">
+      <c r="J94" s="59"/>
+      <c r="K94" s="59"/>
+      <c r="L94" s="59"/>
+      <c r="M94" s="61"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="60"/>
+      <c r="C95" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="59"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="J95" s="59"/>
+      <c r="K95" s="59"/>
+      <c r="L95" s="59"/>
+      <c r="M95" s="61"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="60"/>
+      <c r="C96" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="59"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="J96" s="59"/>
+      <c r="K96" s="59"/>
+      <c r="L96" s="59"/>
+      <c r="M96" s="67"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="60"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="J97" s="59"/>
+      <c r="K97" s="59"/>
+      <c r="L97" s="59"/>
+      <c r="M97" s="61"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="60"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="I98" s="59"/>
+      <c r="J98" s="59"/>
+      <c r="K98" s="59"/>
+      <c r="L98" s="59"/>
+      <c r="M98" s="73"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="72"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="66" t="n">
+        <f aca="false">+F100+F106+F111</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="59"/>
+      <c r="H99" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
+      <c r="K99" s="72"/>
+      <c r="L99" s="72"/>
+      <c r="M99" s="66" t="n">
+        <f aca="false">+M88+M90+M98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="59"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="67" t="n">
+        <f aca="false">SUM(F101:F105)</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="70"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="60"/>
+      <c r="C101" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D101" s="59"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="59"/>
+      <c r="H101" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I101" s="59"/>
+      <c r="J101" s="59"/>
+      <c r="K101" s="59"/>
+      <c r="L101" s="59"/>
+      <c r="M101" s="67"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="60"/>
+      <c r="C102" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" s="59"/>
+      <c r="E102" s="59"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="I102" s="59"/>
+      <c r="J102" s="59"/>
+      <c r="K102" s="59"/>
+      <c r="L102" s="59"/>
+      <c r="M102" s="74"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="60"/>
+      <c r="C103" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="59"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="I103" s="72"/>
+      <c r="J103" s="72"/>
+      <c r="K103" s="72"/>
+      <c r="L103" s="72"/>
+      <c r="M103" s="66" t="n">
+        <f aca="false">+M101+M102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="60"/>
+      <c r="C104" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104" s="59"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="59"/>
+      <c r="K104" s="59"/>
+      <c r="L104" s="59"/>
+      <c r="M104" s="67"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="60"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="G78" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78" s="84" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="81"/>
-      <c r="D79" s="81"/>
-      <c r="E79" s="81"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="86"/>
-      <c r="H79" s="87"/>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="81"/>
-      <c r="D80" s="81"/>
-      <c r="E80" s="81"/>
-      <c r="F80" s="81"/>
-      <c r="G80" s="81"/>
-      <c r="H80" s="81"/>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="58" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="C83" s="59"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="I83" s="59"/>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="59"/>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="61"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="K84" s="60"/>
-      <c r="L84" s="60"/>
-      <c r="M84" s="62"/>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="I85" s="64"/>
-      <c r="J85" s="64"/>
-      <c r="K85" s="64"/>
-      <c r="L85" s="64"/>
-      <c r="M85" s="65"/>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="67" t="n">
-        <f aca="false">+F87+F93</f>
-        <v>0</v>
-      </c>
-      <c r="G86" s="60"/>
-      <c r="H86" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="I86" s="60"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="68"/>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="71" t="n">
-        <f aca="false">SUM(F88:F91)</f>
-        <v>0</v>
-      </c>
-      <c r="G87" s="60"/>
-      <c r="H87" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="I87" s="60"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="72"/>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="61"/>
-      <c r="C88" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="I88" s="73"/>
-      <c r="J88" s="73"/>
-      <c r="K88" s="73"/>
-      <c r="L88" s="73"/>
-      <c r="M88" s="67" t="n">
-        <f aca="false">+M86+M87</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="61"/>
-      <c r="C89" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="60"/>
-      <c r="J89" s="60"/>
-      <c r="K89" s="60"/>
-      <c r="L89" s="60"/>
-      <c r="M89" s="68"/>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="61"/>
-      <c r="C90" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="60"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="I90" s="60"/>
-      <c r="J90" s="60"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="60"/>
-      <c r="M90" s="68" t="n">
-        <f aca="false">SUM(M91:M97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="61"/>
-      <c r="C91" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="61"/>
-      <c r="I91" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="J91" s="60"/>
-      <c r="K91" s="60"/>
-      <c r="L91" s="60"/>
-      <c r="M91" s="68"/>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="61"/>
-      <c r="C92" s="60"/>
-      <c r="D92" s="60"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="J92" s="60"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="60"/>
-      <c r="M92" s="68"/>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C93" s="70"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="71" t="n">
-        <f aca="false">SUM(F94:F96)</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="60"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="68"/>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="61"/>
-      <c r="C94" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D94" s="60"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="68"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="61"/>
-      <c r="I94" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="J94" s="60"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="60"/>
-      <c r="M94" s="62"/>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="61"/>
-      <c r="C95" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="J95" s="60"/>
-      <c r="K95" s="60"/>
-      <c r="L95" s="60"/>
-      <c r="M95" s="62"/>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="61"/>
-      <c r="C96" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="60"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="60"/>
-      <c r="H96" s="61"/>
-      <c r="I96" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="J96" s="60"/>
-      <c r="K96" s="60"/>
-      <c r="L96" s="60"/>
-      <c r="M96" s="68"/>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="61"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="60"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="J97" s="60"/>
-      <c r="K97" s="60"/>
-      <c r="L97" s="60"/>
-      <c r="M97" s="62"/>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="61"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="68"/>
-      <c r="G98" s="60"/>
-      <c r="H98" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="I98" s="60"/>
-      <c r="J98" s="60"/>
-      <c r="K98" s="60"/>
-      <c r="L98" s="60"/>
-      <c r="M98" s="74"/>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="C99" s="73"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="67" t="n">
-        <f aca="false">+F100+F106+F111</f>
-        <v>0</v>
-      </c>
-      <c r="G99" s="60"/>
-      <c r="H99" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="I99" s="73"/>
-      <c r="J99" s="73"/>
-      <c r="K99" s="73"/>
-      <c r="L99" s="73"/>
-      <c r="M99" s="67" t="n">
-        <f aca="false">+M88+M90+M98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="68" t="n">
-        <f aca="false">SUM(F101:F105)</f>
-        <v>0</v>
-      </c>
-      <c r="G100" s="60"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="60"/>
-      <c r="J100" s="60"/>
-      <c r="K100" s="60"/>
-      <c r="L100" s="60"/>
-      <c r="M100" s="71"/>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="61"/>
-      <c r="C101" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D101" s="60"/>
-      <c r="E101" s="60"/>
-      <c r="F101" s="68"/>
-      <c r="G101" s="60"/>
-      <c r="H101" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="I101" s="60"/>
-      <c r="J101" s="60"/>
-      <c r="K101" s="60"/>
-      <c r="L101" s="60"/>
-      <c r="M101" s="68"/>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="61"/>
-      <c r="C102" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D102" s="60"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="68"/>
-      <c r="G102" s="60"/>
-      <c r="H102" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="I102" s="60"/>
-      <c r="J102" s="60"/>
-      <c r="K102" s="60"/>
-      <c r="L102" s="60"/>
-      <c r="M102" s="75"/>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="61"/>
-      <c r="C103" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="60"/>
-      <c r="H103" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="I103" s="73"/>
-      <c r="J103" s="73"/>
-      <c r="K103" s="73"/>
-      <c r="L103" s="73"/>
-      <c r="M103" s="67" t="n">
-        <f aca="false">+M101+M102</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="61"/>
-      <c r="C104" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="68"/>
-      <c r="G104" s="60"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="60"/>
-      <c r="J104" s="60"/>
-      <c r="K104" s="60"/>
-      <c r="L104" s="60"/>
-      <c r="M104" s="68"/>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="61"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="68"/>
-      <c r="G105" s="60"/>
-      <c r="H105" s="61" t="s">
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
+      <c r="K105" s="59"/>
+      <c r="L105" s="59"/>
+      <c r="M105" s="67" t="n">
+        <f aca="false">+M103+M99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="59"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="67" t="n">
+        <f aca="false">SUM(F107:F109)</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="I105" s="60"/>
-      <c r="J105" s="60"/>
-      <c r="K105" s="60"/>
-      <c r="L105" s="60"/>
-      <c r="M105" s="68" t="n">
-        <f aca="false">+M103+M99</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="60"/>
-      <c r="D106" s="60"/>
-      <c r="E106" s="60"/>
-      <c r="F106" s="68" t="n">
-        <f aca="false">SUM(F107:F109)</f>
-        <v>0</v>
-      </c>
-      <c r="G106" s="60"/>
-      <c r="H106" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="I106" s="60"/>
-      <c r="J106" s="60"/>
-      <c r="K106" s="60"/>
-      <c r="L106" s="60"/>
-      <c r="M106" s="76" t="n">
+      <c r="I106" s="59"/>
+      <c r="J106" s="59"/>
+      <c r="K106" s="59"/>
+      <c r="L106" s="59"/>
+      <c r="M106" s="75" t="n">
         <f aca="false">-M105*0.25</f>
         <v>-0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="61"/>
-      <c r="C107" s="60" t="s">
+      <c r="B107" s="60"/>
+      <c r="C107" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" s="59"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="D107" s="60"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="60"/>
-      <c r="H107" s="66" t="s">
+      <c r="I107" s="72"/>
+      <c r="J107" s="72"/>
+      <c r="K107" s="72"/>
+      <c r="L107" s="72"/>
+      <c r="M107" s="66" t="n">
+        <f aca="false">M105+M106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="60"/>
+      <c r="C108" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="I107" s="73"/>
-      <c r="J107" s="73"/>
-      <c r="K107" s="73"/>
-      <c r="L107" s="73"/>
-      <c r="M107" s="67" t="n">
-        <f aca="false">M105+M106</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="61"/>
-      <c r="C108" s="60" t="s">
+      <c r="D108" s="59"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="62"/>
+      <c r="I108" s="63"/>
+      <c r="J108" s="63"/>
+      <c r="K108" s="63"/>
+      <c r="L108" s="63"/>
+      <c r="M108" s="64"/>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="60"/>
+      <c r="C109" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D108" s="60"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="60"/>
-      <c r="H108" s="63"/>
-      <c r="I108" s="64"/>
-      <c r="J108" s="64"/>
-      <c r="K108" s="64"/>
-      <c r="L108" s="64"/>
-      <c r="M108" s="65"/>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="61"/>
-      <c r="C109" s="60" t="s">
+      <c r="D109" s="59"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="59"/>
+      <c r="H109" s="59"/>
+      <c r="I109" s="59"/>
+      <c r="J109" s="59"/>
+      <c r="K109" s="59"/>
+      <c r="L109" s="59"/>
+      <c r="M109" s="59"/>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="60"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="59"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="59"/>
+      <c r="I110" s="59"/>
+      <c r="J110" s="59"/>
+      <c r="K110" s="59"/>
+      <c r="L110" s="59"/>
+      <c r="M110" s="59"/>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="60"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="60"/>
-      <c r="H109" s="60"/>
-      <c r="I109" s="60"/>
-      <c r="J109" s="60"/>
-      <c r="K109" s="60"/>
-      <c r="L109" s="60"/>
-      <c r="M109" s="60"/>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="61"/>
-      <c r="C110" s="60"/>
-      <c r="D110" s="60"/>
-      <c r="E110" s="60"/>
-      <c r="F110" s="68"/>
-      <c r="G110" s="60"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="60"/>
-      <c r="J110" s="60"/>
-      <c r="K110" s="60"/>
-      <c r="L110" s="60"/>
-      <c r="M110" s="60"/>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="77" t="s">
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="67" t="n">
+        <f aca="false">SUM(F112:F113)</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="59"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="59"/>
+      <c r="J111" s="59"/>
+      <c r="K111" s="59"/>
+      <c r="L111" s="59"/>
+      <c r="M111" s="59"/>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="60"/>
+      <c r="C112" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="60"/>
-      <c r="F111" s="68" t="n">
-        <f aca="false">SUM(F112:F113)</f>
-        <v>0</v>
-      </c>
-      <c r="G111" s="60"/>
-      <c r="H111" s="60"/>
-      <c r="I111" s="60"/>
-      <c r="J111" s="60"/>
-      <c r="K111" s="60"/>
-      <c r="L111" s="60"/>
-      <c r="M111" s="60"/>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="61"/>
-      <c r="C112" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="D112" s="60"/>
-      <c r="E112" s="60"/>
-      <c r="F112" s="68"/>
-      <c r="G112" s="60"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="60"/>
-      <c r="J112" s="60"/>
-      <c r="K112" s="60"/>
-      <c r="L112" s="60"/>
-      <c r="M112" s="60"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="59"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="59"/>
+      <c r="I112" s="59"/>
+      <c r="J112" s="59"/>
+      <c r="K112" s="59"/>
+      <c r="L112" s="59"/>
+      <c r="M112" s="59"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="61"/>
-      <c r="C113" s="60" t="s">
+      <c r="B113" s="60"/>
+      <c r="C113" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D113" s="60"/>
-      <c r="E113" s="60"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="60"/>
-      <c r="H113" s="60"/>
-      <c r="I113" s="60"/>
-      <c r="J113" s="60"/>
-      <c r="K113" s="60"/>
-      <c r="L113" s="60"/>
-      <c r="M113" s="60"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="59"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="59"/>
+      <c r="H113" s="59"/>
+      <c r="I113" s="59"/>
+      <c r="J113" s="59"/>
+      <c r="K113" s="59"/>
+      <c r="L113" s="59"/>
+      <c r="M113" s="59"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="63"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="64"/>
-      <c r="F114" s="78"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="60"/>
-      <c r="J114" s="60"/>
-      <c r="K114" s="60"/>
-      <c r="L114" s="60"/>
-      <c r="M114" s="60"/>
+      <c r="B114" s="62"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="63"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="59"/>
+      <c r="H114" s="59"/>
+      <c r="I114" s="59"/>
+      <c r="J114" s="59"/>
+      <c r="K114" s="59"/>
+      <c r="L114" s="59"/>
+      <c r="M114" s="59"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="F117" s="79" t="e">
+      <c r="C117" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F117" s="78" t="e">
         <f aca="false">F87/F100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="F118" s="79" t="e">
+      <c r="C118" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="F118" s="78" t="e">
         <f aca="false">-M102/M86</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F119" s="80" t="e">
+      <c r="C119" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F119" s="79" t="e">
         <f aca="false">+M99/F86</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="F120" s="80" t="e">
+      <c r="C120" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="F120" s="79" t="e">
         <f aca="false">+M107/M86</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="58" t="s">
-        <v>121</v>
+      <c r="B121" s="57" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="59" t="s">
+      <c r="B123" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C123" s="58"/>
+      <c r="D123" s="58"/>
+      <c r="E123" s="58"/>
+      <c r="F123" s="58"/>
+      <c r="G123" s="59"/>
+      <c r="H123" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="C123" s="59"/>
-      <c r="D123" s="59"/>
-      <c r="E123" s="59"/>
-      <c r="F123" s="59"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="I123" s="59"/>
-      <c r="J123" s="59"/>
-      <c r="K123" s="59"/>
-      <c r="L123" s="59"/>
-      <c r="M123" s="59"/>
+      <c r="I123" s="58"/>
+      <c r="J123" s="58"/>
+      <c r="K123" s="58"/>
+      <c r="L123" s="58"/>
+      <c r="M123" s="58"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="61"/>
-      <c r="C124" s="60"/>
-      <c r="D124" s="60"/>
-      <c r="E124" s="60"/>
-      <c r="F124" s="62"/>
-      <c r="G124" s="60"/>
-      <c r="H124" s="61"/>
-      <c r="I124" s="60"/>
-      <c r="J124" s="60"/>
-      <c r="K124" s="60"/>
-      <c r="L124" s="60"/>
-      <c r="M124" s="62"/>
+      <c r="B124" s="60"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="59"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="61"/>
+      <c r="G124" s="59"/>
+      <c r="H124" s="60"/>
+      <c r="I124" s="59"/>
+      <c r="J124" s="59"/>
+      <c r="K124" s="59"/>
+      <c r="L124" s="59"/>
+      <c r="M124" s="61"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="63" t="s">
+      <c r="B125" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C125" s="64"/>
-      <c r="D125" s="64"/>
-      <c r="E125" s="64"/>
-      <c r="F125" s="65"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="63" t="s">
+      <c r="C125" s="63"/>
+      <c r="D125" s="63"/>
+      <c r="E125" s="63"/>
+      <c r="F125" s="64"/>
+      <c r="G125" s="59"/>
+      <c r="H125" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I125" s="64"/>
-      <c r="J125" s="64"/>
-      <c r="K125" s="64"/>
-      <c r="L125" s="64"/>
-      <c r="M125" s="65"/>
+      <c r="I125" s="63"/>
+      <c r="J125" s="63"/>
+      <c r="K125" s="63"/>
+      <c r="L125" s="63"/>
+      <c r="M125" s="64"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="66" t="s">
+      <c r="B126" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C126" s="60"/>
-      <c r="D126" s="60"/>
-      <c r="E126" s="60"/>
-      <c r="F126" s="67" t="n">
+      <c r="C126" s="59"/>
+      <c r="D126" s="59"/>
+      <c r="E126" s="59"/>
+      <c r="F126" s="66" t="n">
         <f aca="false">+F127+F133</f>
         <v>0</v>
       </c>
-      <c r="G126" s="60"/>
-      <c r="H126" s="61" t="s">
+      <c r="G126" s="59"/>
+      <c r="H126" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="I126" s="60"/>
-      <c r="J126" s="60"/>
-      <c r="K126" s="60"/>
-      <c r="L126" s="60"/>
-      <c r="M126" s="68"/>
+      <c r="I126" s="59"/>
+      <c r="J126" s="59"/>
+      <c r="K126" s="59"/>
+      <c r="L126" s="59"/>
+      <c r="M126" s="67"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="69" t="s">
+      <c r="B127" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="69"/>
+      <c r="D127" s="69"/>
+      <c r="E127" s="69"/>
+      <c r="F127" s="70" t="n">
+        <f aca="false">SUM(F128:F131)</f>
+        <v>0</v>
+      </c>
+      <c r="G127" s="59"/>
+      <c r="H127" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C127" s="70"/>
-      <c r="D127" s="70"/>
-      <c r="E127" s="70"/>
-      <c r="F127" s="71" t="n">
-        <f aca="false">SUM(F128:F131)</f>
-        <v>0</v>
-      </c>
-      <c r="G127" s="60"/>
-      <c r="H127" s="61" t="s">
+      <c r="I127" s="59"/>
+      <c r="J127" s="59"/>
+      <c r="K127" s="59"/>
+      <c r="L127" s="59"/>
+      <c r="M127" s="71"/>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="60"/>
+      <c r="C128" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="I127" s="60"/>
-      <c r="J127" s="60"/>
-      <c r="K127" s="60"/>
-      <c r="L127" s="60"/>
-      <c r="M127" s="72"/>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="61"/>
-      <c r="C128" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D128" s="60"/>
-      <c r="E128" s="60"/>
-      <c r="F128" s="68"/>
-      <c r="G128" s="60"/>
-      <c r="H128" s="66" t="s">
+      <c r="D128" s="59"/>
+      <c r="E128" s="59"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="59"/>
+      <c r="H128" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="I128" s="72"/>
+      <c r="J128" s="72"/>
+      <c r="K128" s="72"/>
+      <c r="L128" s="72"/>
+      <c r="M128" s="66" t="n">
+        <f aca="false">+M126+M127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="60"/>
+      <c r="C129" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D129" s="59"/>
+      <c r="E129" s="59"/>
+      <c r="F129" s="67"/>
+      <c r="G129" s="59"/>
+      <c r="H129" s="60"/>
+      <c r="I129" s="59"/>
+      <c r="J129" s="59"/>
+      <c r="K129" s="59"/>
+      <c r="L129" s="59"/>
+      <c r="M129" s="67"/>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="60"/>
+      <c r="C130" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="59"/>
+      <c r="E130" s="59"/>
+      <c r="F130" s="67"/>
+      <c r="G130" s="59"/>
+      <c r="H130" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" s="59"/>
+      <c r="J130" s="59"/>
+      <c r="K130" s="59"/>
+      <c r="L130" s="59"/>
+      <c r="M130" s="67" t="n">
+        <f aca="false">SUM(M131:M137)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="60"/>
+      <c r="C131" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131" s="59"/>
+      <c r="E131" s="59"/>
+      <c r="F131" s="67"/>
+      <c r="G131" s="59"/>
+      <c r="H131" s="60"/>
+      <c r="I131" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="J131" s="59"/>
+      <c r="K131" s="59"/>
+      <c r="L131" s="59"/>
+      <c r="M131" s="67"/>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="60"/>
+      <c r="C132" s="59"/>
+      <c r="D132" s="59"/>
+      <c r="E132" s="59"/>
+      <c r="F132" s="67"/>
+      <c r="G132" s="59"/>
+      <c r="H132" s="60"/>
+      <c r="I132" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J132" s="59"/>
+      <c r="K132" s="59"/>
+      <c r="L132" s="59"/>
+      <c r="M132" s="67"/>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" s="69"/>
+      <c r="D133" s="69"/>
+      <c r="E133" s="69"/>
+      <c r="F133" s="70" t="n">
+        <f aca="false">SUM(F134:F136)</f>
+        <v>0</v>
+      </c>
+      <c r="G133" s="59"/>
+      <c r="H133" s="60"/>
+      <c r="I133" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J133" s="59"/>
+      <c r="K133" s="59"/>
+      <c r="L133" s="59"/>
+      <c r="M133" s="67"/>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="60"/>
+      <c r="C134" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D134" s="59"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="67"/>
+      <c r="G134" s="59"/>
+      <c r="H134" s="60"/>
+      <c r="I134" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J134" s="59"/>
+      <c r="K134" s="59"/>
+      <c r="L134" s="59"/>
+      <c r="M134" s="61"/>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="60"/>
+      <c r="C135" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" s="59"/>
+      <c r="E135" s="59"/>
+      <c r="F135" s="67"/>
+      <c r="G135" s="59"/>
+      <c r="H135" s="60"/>
+      <c r="I135" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="J135" s="59"/>
+      <c r="K135" s="59"/>
+      <c r="L135" s="59"/>
+      <c r="M135" s="61"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="60"/>
+      <c r="C136" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" s="59"/>
+      <c r="E136" s="59"/>
+      <c r="F136" s="67"/>
+      <c r="G136" s="59"/>
+      <c r="H136" s="60"/>
+      <c r="I136" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="J136" s="59"/>
+      <c r="K136" s="59"/>
+      <c r="L136" s="59"/>
+      <c r="M136" s="67"/>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="60"/>
+      <c r="C137" s="59"/>
+      <c r="D137" s="59"/>
+      <c r="E137" s="59"/>
+      <c r="F137" s="67"/>
+      <c r="G137" s="59"/>
+      <c r="H137" s="60"/>
+      <c r="I137" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="J137" s="59"/>
+      <c r="K137" s="59"/>
+      <c r="L137" s="59"/>
+      <c r="M137" s="61"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="60"/>
+      <c r="C138" s="59"/>
+      <c r="D138" s="59"/>
+      <c r="E138" s="59"/>
+      <c r="F138" s="67"/>
+      <c r="G138" s="59"/>
+      <c r="H138" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="I138" s="59"/>
+      <c r="J138" s="59"/>
+      <c r="K138" s="59"/>
+      <c r="L138" s="59"/>
+      <c r="M138" s="73"/>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C139" s="72"/>
+      <c r="D139" s="72"/>
+      <c r="E139" s="72"/>
+      <c r="F139" s="66" t="n">
+        <f aca="false">+F140+F146+F151</f>
+        <v>0</v>
+      </c>
+      <c r="G139" s="59"/>
+      <c r="H139" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="I128" s="73"/>
-      <c r="J128" s="73"/>
-      <c r="K128" s="73"/>
-      <c r="L128" s="73"/>
-      <c r="M128" s="67" t="n">
-        <f aca="false">+M126+M127</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="61"/>
-      <c r="C129" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="D129" s="60"/>
-      <c r="E129" s="60"/>
-      <c r="F129" s="68"/>
-      <c r="G129" s="60"/>
-      <c r="H129" s="61"/>
-      <c r="I129" s="60"/>
-      <c r="J129" s="60"/>
-      <c r="K129" s="60"/>
-      <c r="L129" s="60"/>
-      <c r="M129" s="68"/>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="61"/>
-      <c r="C130" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" s="60"/>
-      <c r="E130" s="60"/>
-      <c r="F130" s="68"/>
-      <c r="G130" s="60"/>
-      <c r="H130" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="I130" s="60"/>
-      <c r="J130" s="60"/>
-      <c r="K130" s="60"/>
-      <c r="L130" s="60"/>
-      <c r="M130" s="68" t="n">
-        <f aca="false">SUM(M131:M137)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="61"/>
-      <c r="C131" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D131" s="60"/>
-      <c r="E131" s="60"/>
-      <c r="F131" s="68"/>
-      <c r="G131" s="60"/>
-      <c r="H131" s="61"/>
-      <c r="I131" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="J131" s="60"/>
-      <c r="K131" s="60"/>
-      <c r="L131" s="60"/>
-      <c r="M131" s="68"/>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="61"/>
-      <c r="C132" s="60"/>
-      <c r="D132" s="60"/>
-      <c r="E132" s="60"/>
-      <c r="F132" s="68"/>
-      <c r="G132" s="60"/>
-      <c r="H132" s="61"/>
-      <c r="I132" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="J132" s="60"/>
-      <c r="K132" s="60"/>
-      <c r="L132" s="60"/>
-      <c r="M132" s="68"/>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C133" s="70"/>
-      <c r="D133" s="70"/>
-      <c r="E133" s="70"/>
-      <c r="F133" s="71" t="n">
-        <f aca="false">SUM(F134:F136)</f>
-        <v>0</v>
-      </c>
-      <c r="G133" s="60"/>
-      <c r="H133" s="61"/>
-      <c r="I133" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="J133" s="60"/>
-      <c r="K133" s="60"/>
-      <c r="L133" s="60"/>
-      <c r="M133" s="68"/>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="61"/>
-      <c r="C134" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D134" s="60"/>
-      <c r="E134" s="60"/>
-      <c r="F134" s="68"/>
-      <c r="G134" s="60"/>
-      <c r="H134" s="61"/>
-      <c r="I134" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="J134" s="60"/>
-      <c r="K134" s="60"/>
-      <c r="L134" s="60"/>
-      <c r="M134" s="62"/>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="61"/>
-      <c r="C135" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D135" s="60"/>
-      <c r="E135" s="60"/>
-      <c r="F135" s="68"/>
-      <c r="G135" s="60"/>
-      <c r="H135" s="61"/>
-      <c r="I135" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="J135" s="60"/>
-      <c r="K135" s="60"/>
-      <c r="L135" s="60"/>
-      <c r="M135" s="62"/>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="61"/>
-      <c r="C136" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D136" s="60"/>
-      <c r="E136" s="60"/>
-      <c r="F136" s="68"/>
-      <c r="G136" s="60"/>
-      <c r="H136" s="61"/>
-      <c r="I136" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="J136" s="60"/>
-      <c r="K136" s="60"/>
-      <c r="L136" s="60"/>
-      <c r="M136" s="68"/>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="61"/>
-      <c r="C137" s="60"/>
-      <c r="D137" s="60"/>
-      <c r="E137" s="60"/>
-      <c r="F137" s="68"/>
-      <c r="G137" s="60"/>
-      <c r="H137" s="61"/>
-      <c r="I137" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="J137" s="60"/>
-      <c r="K137" s="60"/>
-      <c r="L137" s="60"/>
-      <c r="M137" s="62"/>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="61"/>
-      <c r="C138" s="60"/>
-      <c r="D138" s="60"/>
-      <c r="E138" s="60"/>
-      <c r="F138" s="68"/>
-      <c r="G138" s="60"/>
-      <c r="H138" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="I138" s="60"/>
-      <c r="J138" s="60"/>
-      <c r="K138" s="60"/>
-      <c r="L138" s="60"/>
-      <c r="M138" s="74"/>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="C139" s="73"/>
-      <c r="D139" s="73"/>
-      <c r="E139" s="73"/>
-      <c r="F139" s="67" t="n">
-        <f aca="false">+F140+F146+F151</f>
-        <v>0</v>
-      </c>
-      <c r="G139" s="60"/>
-      <c r="H139" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="I139" s="73"/>
-      <c r="J139" s="73"/>
-      <c r="K139" s="73"/>
-      <c r="L139" s="73"/>
-      <c r="M139" s="67" t="n">
+      <c r="I139" s="72"/>
+      <c r="J139" s="72"/>
+      <c r="K139" s="72"/>
+      <c r="L139" s="72"/>
+      <c r="M139" s="66" t="n">
         <f aca="false">+M128+M130+M138</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C140" s="60"/>
-      <c r="D140" s="60"/>
-      <c r="E140" s="60"/>
-      <c r="F140" s="68" t="n">
+      <c r="B140" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" s="59"/>
+      <c r="D140" s="59"/>
+      <c r="E140" s="59"/>
+      <c r="F140" s="67" t="n">
         <f aca="false">SUM(F141:F145)</f>
         <v>0</v>
       </c>
-      <c r="G140" s="60"/>
-      <c r="H140" s="61"/>
-      <c r="I140" s="60"/>
-      <c r="J140" s="60"/>
-      <c r="K140" s="60"/>
-      <c r="L140" s="60"/>
-      <c r="M140" s="71"/>
+      <c r="G140" s="59"/>
+      <c r="H140" s="60"/>
+      <c r="I140" s="59"/>
+      <c r="J140" s="59"/>
+      <c r="K140" s="59"/>
+      <c r="L140" s="59"/>
+      <c r="M140" s="70"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="61"/>
-      <c r="C141" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D141" s="60"/>
-      <c r="E141" s="60"/>
-      <c r="F141" s="68"/>
-      <c r="G141" s="60"/>
-      <c r="H141" s="61" t="s">
+      <c r="B141" s="60"/>
+      <c r="C141" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D141" s="59"/>
+      <c r="E141" s="59"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="59"/>
+      <c r="H141" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I141" s="59"/>
+      <c r="J141" s="59"/>
+      <c r="K141" s="59"/>
+      <c r="L141" s="59"/>
+      <c r="M141" s="67"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="60"/>
+      <c r="C142" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="I141" s="60"/>
-      <c r="J141" s="60"/>
-      <c r="K141" s="60"/>
-      <c r="L141" s="60"/>
-      <c r="M141" s="68"/>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="61"/>
-      <c r="C142" s="60" t="s">
+      <c r="D142" s="59"/>
+      <c r="E142" s="59"/>
+      <c r="F142" s="67"/>
+      <c r="G142" s="59"/>
+      <c r="H142" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D142" s="60"/>
-      <c r="E142" s="60"/>
-      <c r="F142" s="68"/>
-      <c r="G142" s="60"/>
-      <c r="H142" s="61" t="s">
+      <c r="I142" s="59"/>
+      <c r="J142" s="59"/>
+      <c r="K142" s="59"/>
+      <c r="L142" s="59"/>
+      <c r="M142" s="74"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="60"/>
+      <c r="C143" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="I142" s="60"/>
-      <c r="J142" s="60"/>
-      <c r="K142" s="60"/>
-      <c r="L142" s="60"/>
-      <c r="M142" s="75"/>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="61"/>
-      <c r="C143" s="60" t="s">
+      <c r="D143" s="59"/>
+      <c r="E143" s="59"/>
+      <c r="F143" s="67"/>
+      <c r="G143" s="59"/>
+      <c r="H143" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="D143" s="60"/>
-      <c r="E143" s="60"/>
-      <c r="F143" s="68"/>
-      <c r="G143" s="60"/>
-      <c r="H143" s="66" t="s">
+      <c r="I143" s="72"/>
+      <c r="J143" s="72"/>
+      <c r="K143" s="72"/>
+      <c r="L143" s="72"/>
+      <c r="M143" s="66" t="n">
+        <f aca="false">+M141+M142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="60"/>
+      <c r="C144" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="I143" s="73"/>
-      <c r="J143" s="73"/>
-      <c r="K143" s="73"/>
-      <c r="L143" s="73"/>
-      <c r="M143" s="67" t="n">
-        <f aca="false">+M141+M142</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="61"/>
-      <c r="C144" s="60" t="s">
+      <c r="D144" s="59"/>
+      <c r="E144" s="59"/>
+      <c r="F144" s="67"/>
+      <c r="G144" s="59"/>
+      <c r="H144" s="60"/>
+      <c r="I144" s="59"/>
+      <c r="J144" s="59"/>
+      <c r="K144" s="59"/>
+      <c r="L144" s="59"/>
+      <c r="M144" s="67"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="60"/>
+      <c r="C145" s="59"/>
+      <c r="D145" s="59"/>
+      <c r="E145" s="59"/>
+      <c r="F145" s="67"/>
+      <c r="G145" s="59"/>
+      <c r="H145" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D144" s="60"/>
-      <c r="E144" s="60"/>
-      <c r="F144" s="68"/>
-      <c r="G144" s="60"/>
-      <c r="H144" s="61"/>
-      <c r="I144" s="60"/>
-      <c r="J144" s="60"/>
-      <c r="K144" s="60"/>
-      <c r="L144" s="60"/>
-      <c r="M144" s="68"/>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="61"/>
-      <c r="C145" s="60"/>
-      <c r="D145" s="60"/>
-      <c r="E145" s="60"/>
-      <c r="F145" s="68"/>
-      <c r="G145" s="60"/>
-      <c r="H145" s="61" t="s">
+      <c r="I145" s="59"/>
+      <c r="J145" s="59"/>
+      <c r="K145" s="59"/>
+      <c r="L145" s="59"/>
+      <c r="M145" s="67" t="n">
+        <f aca="false">+M143+M139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="59"/>
+      <c r="D146" s="59"/>
+      <c r="E146" s="59"/>
+      <c r="F146" s="67" t="n">
+        <f aca="false">SUM(F147:F149)</f>
+        <v>0</v>
+      </c>
+      <c r="G146" s="59"/>
+      <c r="H146" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="I145" s="60"/>
-      <c r="J145" s="60"/>
-      <c r="K145" s="60"/>
-      <c r="L145" s="60"/>
-      <c r="M145" s="68" t="n">
-        <f aca="false">+M143+M139</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C146" s="60"/>
-      <c r="D146" s="60"/>
-      <c r="E146" s="60"/>
-      <c r="F146" s="68" t="n">
-        <f aca="false">SUM(F147:F149)</f>
-        <v>0</v>
-      </c>
-      <c r="G146" s="60"/>
-      <c r="H146" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="I146" s="60"/>
-      <c r="J146" s="60"/>
-      <c r="K146" s="60"/>
-      <c r="L146" s="60"/>
-      <c r="M146" s="76" t="n">
+      <c r="I146" s="59"/>
+      <c r="J146" s="59"/>
+      <c r="K146" s="59"/>
+      <c r="L146" s="59"/>
+      <c r="M146" s="75" t="n">
         <f aca="false">-M145*0.25</f>
         <v>-0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="61"/>
-      <c r="C147" s="60" t="s">
+      <c r="B147" s="60"/>
+      <c r="C147" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D147" s="59"/>
+      <c r="E147" s="59"/>
+      <c r="F147" s="67"/>
+      <c r="G147" s="59"/>
+      <c r="H147" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="D147" s="60"/>
-      <c r="E147" s="60"/>
-      <c r="F147" s="68"/>
-      <c r="G147" s="60"/>
-      <c r="H147" s="66" t="s">
+      <c r="I147" s="72"/>
+      <c r="J147" s="72"/>
+      <c r="K147" s="72"/>
+      <c r="L147" s="72"/>
+      <c r="M147" s="66" t="n">
+        <f aca="false">M145+M146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="60"/>
+      <c r="C148" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="I147" s="73"/>
-      <c r="J147" s="73"/>
-      <c r="K147" s="73"/>
-      <c r="L147" s="73"/>
-      <c r="M147" s="67" t="n">
-        <f aca="false">M145+M146</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="61"/>
-      <c r="C148" s="60" t="s">
+      <c r="D148" s="59"/>
+      <c r="E148" s="59"/>
+      <c r="F148" s="67"/>
+      <c r="G148" s="59"/>
+      <c r="H148" s="62"/>
+      <c r="I148" s="63"/>
+      <c r="J148" s="63"/>
+      <c r="K148" s="63"/>
+      <c r="L148" s="63"/>
+      <c r="M148" s="64"/>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="60"/>
+      <c r="C149" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D148" s="60"/>
-      <c r="E148" s="60"/>
-      <c r="F148" s="68"/>
-      <c r="G148" s="60"/>
-      <c r="H148" s="63"/>
-      <c r="I148" s="64"/>
-      <c r="J148" s="64"/>
-      <c r="K148" s="64"/>
-      <c r="L148" s="64"/>
-      <c r="M148" s="65"/>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="61"/>
-      <c r="C149" s="60" t="s">
+      <c r="D149" s="59"/>
+      <c r="E149" s="59"/>
+      <c r="F149" s="67"/>
+      <c r="G149" s="59"/>
+      <c r="H149" s="59"/>
+      <c r="I149" s="59"/>
+      <c r="J149" s="59"/>
+      <c r="K149" s="59"/>
+      <c r="L149" s="59"/>
+      <c r="M149" s="59"/>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="60"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="59"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="67"/>
+      <c r="G150" s="59"/>
+      <c r="H150" s="59"/>
+      <c r="I150" s="59"/>
+      <c r="J150" s="59"/>
+      <c r="K150" s="59"/>
+      <c r="L150" s="59"/>
+      <c r="M150" s="59"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="D149" s="60"/>
-      <c r="E149" s="60"/>
-      <c r="F149" s="68"/>
-      <c r="G149" s="60"/>
-      <c r="H149" s="60"/>
-      <c r="I149" s="60"/>
-      <c r="J149" s="60"/>
-      <c r="K149" s="60"/>
-      <c r="L149" s="60"/>
-      <c r="M149" s="60"/>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="61"/>
-      <c r="C150" s="60"/>
-      <c r="D150" s="60"/>
-      <c r="E150" s="60"/>
-      <c r="F150" s="68"/>
-      <c r="G150" s="60"/>
-      <c r="H150" s="60"/>
-      <c r="I150" s="60"/>
-      <c r="J150" s="60"/>
-      <c r="K150" s="60"/>
-      <c r="L150" s="60"/>
-      <c r="M150" s="60"/>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="77" t="s">
+      <c r="C151" s="59"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="67" t="n">
+        <f aca="false">SUM(F152:F153)</f>
+        <v>0</v>
+      </c>
+      <c r="G151" s="59"/>
+      <c r="H151" s="59"/>
+      <c r="I151" s="59"/>
+      <c r="J151" s="59"/>
+      <c r="K151" s="59"/>
+      <c r="L151" s="59"/>
+      <c r="M151" s="59"/>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="60"/>
+      <c r="C152" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C151" s="60"/>
-      <c r="D151" s="60"/>
-      <c r="E151" s="60"/>
-      <c r="F151" s="68" t="n">
-        <f aca="false">SUM(F152:F153)</f>
-        <v>0</v>
-      </c>
-      <c r="G151" s="60"/>
-      <c r="H151" s="60"/>
-      <c r="I151" s="60"/>
-      <c r="J151" s="60"/>
-      <c r="K151" s="60"/>
-      <c r="L151" s="60"/>
-      <c r="M151" s="60"/>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="61"/>
-      <c r="C152" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="D152" s="60"/>
-      <c r="E152" s="60"/>
-      <c r="F152" s="68"/>
-      <c r="G152" s="60"/>
-      <c r="H152" s="60"/>
-      <c r="I152" s="60"/>
-      <c r="J152" s="60"/>
-      <c r="K152" s="60"/>
-      <c r="L152" s="60"/>
-      <c r="M152" s="60"/>
+      <c r="D152" s="59"/>
+      <c r="E152" s="59"/>
+      <c r="F152" s="67"/>
+      <c r="G152" s="59"/>
+      <c r="H152" s="59"/>
+      <c r="I152" s="59"/>
+      <c r="J152" s="59"/>
+      <c r="K152" s="59"/>
+      <c r="L152" s="59"/>
+      <c r="M152" s="59"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="61"/>
-      <c r="C153" s="60" t="s">
+      <c r="B153" s="60"/>
+      <c r="C153" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D153" s="60"/>
-      <c r="E153" s="60"/>
-      <c r="F153" s="68"/>
-      <c r="G153" s="60"/>
-      <c r="H153" s="60"/>
-      <c r="I153" s="60"/>
-      <c r="J153" s="60"/>
-      <c r="K153" s="60"/>
-      <c r="L153" s="60"/>
-      <c r="M153" s="60"/>
+      <c r="D153" s="59"/>
+      <c r="E153" s="59"/>
+      <c r="F153" s="67"/>
+      <c r="G153" s="59"/>
+      <c r="H153" s="59"/>
+      <c r="I153" s="59"/>
+      <c r="J153" s="59"/>
+      <c r="K153" s="59"/>
+      <c r="L153" s="59"/>
+      <c r="M153" s="59"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="63"/>
-      <c r="C154" s="64"/>
-      <c r="D154" s="64"/>
-      <c r="E154" s="64"/>
-      <c r="F154" s="78"/>
-      <c r="G154" s="60"/>
-      <c r="H154" s="60"/>
-      <c r="I154" s="60"/>
-      <c r="J154" s="60"/>
-      <c r="K154" s="60"/>
-      <c r="L154" s="60"/>
-      <c r="M154" s="60"/>
+      <c r="B154" s="62"/>
+      <c r="C154" s="63"/>
+      <c r="D154" s="63"/>
+      <c r="E154" s="63"/>
+      <c r="F154" s="77"/>
+      <c r="G154" s="59"/>
+      <c r="H154" s="59"/>
+      <c r="I154" s="59"/>
+      <c r="J154" s="59"/>
+      <c r="K154" s="59"/>
+      <c r="L154" s="59"/>
+      <c r="M154" s="59"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="F157" s="79" t="e">
+      <c r="C157" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F157" s="78" t="e">
         <f aca="false">F127/F140</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="F158" s="79" t="e">
+      <c r="C158" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="F158" s="78" t="e">
         <f aca="false">-M142/M126</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F159" s="89" t="e">
+      <c r="C159" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F159" s="88" t="e">
         <f aca="false">+M139/F126</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="F160" s="80" t="e">
+      <c r="C160" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="F160" s="79" t="e">
         <f aca="false">+M147/M126</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="90"/>
-      <c r="C162" s="90"/>
-      <c r="D162" s="90"/>
-      <c r="E162" s="90"/>
+      <c r="B162" s="89"/>
+      <c r="C162" s="89"/>
+      <c r="D162" s="89"/>
+      <c r="E162" s="89"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="90" t="s">
+      <c r="B163" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C163" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="C163" s="91" t="s">
+      <c r="D163" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="E163" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="D163" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="E163" s="91" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="C164" s="92" t="n">
+      <c r="B164" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C164" s="91" t="n">
         <f aca="false">+F50</f>
         <v>0</v>
       </c>
-      <c r="D164" s="92" t="e">
+      <c r="D164" s="91" t="e">
         <f aca="false">+F117</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E164" s="92" t="e">
+      <c r="E164" s="91" t="e">
         <f aca="false">+F157</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C165" s="92" t="n">
+      <c r="B165" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C165" s="91" t="n">
         <f aca="false">+F51*100</f>
         <v>0</v>
       </c>
-      <c r="D165" s="92" t="e">
+      <c r="D165" s="91" t="e">
         <f aca="false">+F118*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E165" s="92" t="e">
+      <c r="E165" s="91" t="e">
         <f aca="false">+F158*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="C166" s="93" t="n">
+      <c r="B166" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C166" s="92" t="n">
         <f aca="false">+F52</f>
         <v>0</v>
       </c>
-      <c r="D166" s="93" t="e">
+      <c r="D166" s="92" t="e">
         <f aca="false">+F119</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E166" s="93" t="e">
+      <c r="E166" s="92" t="e">
         <f aca="false">+F159</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="C167" s="94" t="n">
+      <c r="B167" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="C167" s="93" t="n">
         <f aca="false">+F53</f>
         <v>0</v>
       </c>
-      <c r="D167" s="94" t="e">
+      <c r="D167" s="93" t="e">
         <f aca="false">+F120</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E167" s="94" t="e">
+      <c r="E167" s="93" t="e">
         <f aca="false">+F160</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="58" t="s">
-        <v>126</v>
+      <c r="C183" s="57" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
